--- a/premise/data/additional_inventories/lci-PGM.xlsx
+++ b/premise/data/additional_inventories/lci-PGM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="141">
   <si>
     <t>Activity</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (18%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>CHECK WITH ROMAIN THIS NUMBER (IT WAS 1 BEFORE)</t>
   </si>
 </sst>
 </file>
@@ -809,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1072,12 +1075,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1091,8 +1094,11 @@
       <c r="G19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>45</v>
       </c>
       <c r="B92" s="2">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -3643,7 +3649,7 @@
         <v>45</v>
       </c>
       <c r="B172" s="2">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -3659,7 +3665,7 @@
       </c>
       <c r="H172">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.23199999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5287,7 +5293,7 @@
         <v>45</v>
       </c>
       <c r="B256" s="2">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>

--- a/premise/data/additional_inventories/lci-PGM.xlsx
+++ b/premise/data/additional_inventories/lci-PGM.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF6016-9B56-4C56-A5B5-BD87D9D18117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="30240" windowHeight="16320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="graphite" sheetId="1" r:id="rId1"/>
+    <sheet name="PGM" sheetId="1" r:id="rId1"/>
+    <sheet name="Allocation" sheetId="2" r:id="rId2"/>
+    <sheet name="Shares" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">graphite!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PGM!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="192">
   <si>
     <t>Activity</t>
   </si>
@@ -333,18 +337,12 @@
     <t>Ruthenium, in ground</t>
   </si>
   <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (7%) and divided by former allocation value of platinunm (61%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
     <t>PGM</t>
   </si>
   <si>
     <t>iridium</t>
   </si>
   <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (13%) and divided by former allocation value of platinum (61%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
     <t>Iridium, in ground</t>
   </si>
   <si>
@@ -453,20 +451,179 @@
     <t>natural resource::land</t>
   </si>
   <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (10%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (18%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>CHECK WITH ROMAIN THIS NUMBER (IT WAS 1 BEFORE)</t>
+    <t>Price [$ per kg]</t>
+  </si>
+  <si>
+    <t>Mine [kg/kg platinum]</t>
+  </si>
+  <si>
+    <t>Iridium</t>
+  </si>
+  <si>
+    <t>The life cycle impact for platinum group metals and lithium to 2070 via surplus cost potential. Jasinski</t>
+  </si>
+  <si>
+    <t>Ruthenium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Rhodium</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>We take the same values for iridium and ruthenium, but scale them to palladium</t>
+  </si>
+  <si>
+    <t>Bar0</t>
+  </si>
+  <si>
+    <t>Bar1</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Bar2</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Bar3</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Bar4</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Bar5</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Bar6</t>
+  </si>
+  <si>
+    <t>Bar7</t>
+  </si>
+  <si>
+    <t>Bar8</t>
+  </si>
+  <si>
+    <t>Bar9</t>
+  </si>
+  <si>
+    <t>Bar10</t>
+  </si>
+  <si>
+    <t>Bar11</t>
+  </si>
+  <si>
+    <t>Bar12</t>
+  </si>
+  <si>
+    <t>Bar13</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Bar14</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Bar15</t>
+  </si>
+  <si>
+    <t>Bar16</t>
+  </si>
+  <si>
+    <t>Bar17</t>
+  </si>
+  <si>
+    <t>Bar18</t>
+  </si>
+  <si>
+    <t>Bar19</t>
+  </si>
+  <si>
+    <t>Bar20</t>
+  </si>
+  <si>
+    <t>Bar21</t>
+  </si>
+  <si>
+    <t>Bar22</t>
+  </si>
+  <si>
+    <t>Bar23</t>
+  </si>
+  <si>
+    <t>Bar24</t>
+  </si>
+  <si>
+    <t>Bar25</t>
+  </si>
+  <si>
+    <t>Bar26</t>
+  </si>
+  <si>
+    <t>Bar27</t>
+  </si>
+  <si>
+    <t>Bar28</t>
+  </si>
+  <si>
+    <t>Bar29</t>
+  </si>
+  <si>
+    <t>https://matthey.com/documents/161599/509428/PGM-market-report-May-2022.pdf/542bcada-f4ac-a673-5f95-ad1bbfca5106?t=1655877358676</t>
+  </si>
+  <si>
+    <t>JM - PGM market report May 2022</t>
+  </si>
+  <si>
+    <t>Prices from Umicore 2023, converted to EUR2005</t>
+  </si>
+  <si>
+    <t>€160,000 in 2023 is worth €106,995.29 in 2005</t>
+  </si>
+  <si>
+    <t>€15,400 in 2023 is worth €10,298.30 in 2005</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (3%) and divided by former allocation value of platinunm (61%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (8%) and divided by former allocation value of platinum (61%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (5%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (13%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,16 +654,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -514,13 +712,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -528,11 +743,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Per cent 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,6 +774,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0CA01D-ACCE-41B2-94D2-28D0570522E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="0"/>
+          <a:ext cx="7954485" cy="3448531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>315418</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7737416A-058C-4E5E-B958-347B26E6EAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10858500" y="3552825"/>
+          <a:ext cx="7830643" cy="3543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>78642</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B5B200-53A2-426F-9725-AC97A58BFD90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="0"/>
+          <a:ext cx="10765692" cy="3686238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D02D69-11E3-6E38-2D03-D9A08E33AE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="3514725"/>
+          <a:ext cx="2095792" cy="666843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,11 +1224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="G325" sqref="G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -848,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,35 +1330,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>2882.5523032849478</v>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <f>0.12/0.12</f>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>204.79447020905278</v>
+        <f>H12*0.0326860308809546/0.61/$H$11</f>
+        <v>11216.570666802214</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -952,55 +1372,67 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>25119.384357197399</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>328.23223307478298</v>
+        <f t="shared" ref="B13:B73" si="0">H13*0.0326860308809546/0.61/$H$11</f>
+        <v>796.89504494069467</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>1784.6375261074597</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>8556.4812895563027</v>
+        <f t="shared" si="0"/>
+        <v>1277.2153460008383</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>2860.3094596516798</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>792.52654567201785</v>
+        <f t="shared" si="0"/>
+        <v>33294.929959850895</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1012,38 +1444,46 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>74563.62266613348</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5.2932145311205091E-13</v>
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3083.8746602156966</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>6906.3027551418691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3611.957265673354</v>
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.0596925431395546E-12</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -1052,58 +1492,67 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>4.6126583771193003E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-750.44549014961035</v>
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>14054.826991248519</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>31475.627600867792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-2920.129103036104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>-6539.5964141608893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2">
-        <v>7.7059400848145522E-4</v>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.9985308997504088E-3</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1114,13 +1563,18 @@
       <c r="F20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>6.7151763596241089E-3</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="6">
-        <v>4.3837156528755754E-13</v>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.7057888714668461E-12</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1131,13 +1585,18 @@
       <c r="F21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3.8200950689344294E-12</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2">
-        <v>1.1749330308076819E-3</v>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4.5718925390516038E-3</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1148,13 +1607,18 @@
       <c r="F22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1.0238702125609797E-2</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="2">
-        <v>0.35166961060036944</v>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.3684147323782088</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1165,13 +1629,18 @@
       <c r="F23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>3.0645494638032189</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="6">
-        <v>1.6773181888082134E-6</v>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>6.5267707281633448E-6</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1182,13 +1651,18 @@
       <c r="F24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1.4616629931043001E-5</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2">
-        <v>6.174475651554883E-4</v>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.4026083550050615E-3</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1199,13 +1673,18 @@
       <c r="F25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>5.3806144963549681E-3</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="6">
-        <v>6.4418742033938735E-6</v>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.5066583231352018E-5</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1216,13 +1695,18 @@
       <c r="F26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>5.6136332343860893E-5</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
-        <v>4.8050709466824729E-2</v>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.18697463970052505</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1233,13 +1717,18 @@
       <c r="F27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0.41872761106804401</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="2">
-        <v>1.1668300443883199E-4</v>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>4.5403622456788393E-4</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1250,13 +1739,18 @@
       <c r="F28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1.0168090386812501E-3</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
-        <v>17.48057260249254</v>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>68.02030189307618</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -1267,13 +1761,18 @@
       <c r="F29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>152.33070410743497</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="6">
-        <v>1.815068957937395E-6</v>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>7.0627857155004503E-6</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1284,13 +1783,18 @@
       <c r="F30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1.5817029490597299E-5</v>
+      </c>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="2">
-        <v>8.1840162835569968E-5</v>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>3.1845596306497525E-4</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1301,13 +1805,18 @@
       <c r="F31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>7.1317856185282389E-4</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="2">
-        <v>3.3951513097132495</v>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>13.211192923190563</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -1318,13 +1827,18 @@
       <c r="F32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>29.586318556072602</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="6">
-        <v>4.7159380960694758E-8</v>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.8350630742952035E-7</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1335,13 +1849,18 @@
       <c r="F33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>4.1096031980033995E-7</v>
+      </c>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="2">
-        <v>4.7159380960694753E-5</v>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.8350630742952035E-4</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1352,13 +1871,18 @@
       <c r="F34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>4.1096031980033995E-4</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="2">
-        <v>7.2845847910076564</v>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>28.345733742120053</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -1369,13 +1893,18 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>63.479953178781003</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="6">
-        <v>7.8842057860405461E-6</v>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>3.0678975451705026E-5</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1386,13 +1915,18 @@
       <c r="F36" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>6.8705221849781899E-5</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="6">
-        <v>1.8150689579373952E-7</v>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>7.0627857155004498E-7</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1403,13 +1937,18 @@
       <c r="F37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>1.5817029490597298E-6</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="2">
-        <v>1.5800823517758541E-3</v>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>6.1484072076901115E-3</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1420,13 +1959,18 @@
       <c r="F38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>1.3769289065475299E-2</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="2">
-        <v>3.3384304047777015E-2</v>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.12990480869581156</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1437,13 +1981,18 @@
       <c r="F39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0.29092036384491399</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="6">
-        <v>1.9933346591633886E-9</v>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>7.7564521697013853E-9</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1454,13 +2003,18 @@
       <c r="F40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1.73704877441381E-8</v>
+      </c>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="2">
-        <v>1.2883748406787771E-2</v>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>5.0133166462704125E-2</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1471,13 +2025,18 @@
       <c r="F41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0.11227266468772198</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="6">
-        <v>9.0753447896869641E-10</v>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>3.5313928577502202E-9</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1488,13 +2047,18 @@
       <c r="F42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>7.9085147452986395E-9</v>
+      </c>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="6">
-        <v>3.6382409022941526E-6</v>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.4157101724373665E-5</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1505,13 +2069,18 @@
       <c r="F43" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>3.1704670719991896E-5</v>
+      </c>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="2">
-        <v>1.0452852480978738E-3</v>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>4.0674078450873086E-3</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1522,13 +2091,18 @@
       <c r="F44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>9.1089143048528991E-3</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="6">
-        <v>2.8684571924546315E-7</v>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1.1161723853960526E-6</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1539,13 +2113,18 @@
       <c r="F45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>2.4996555534247502E-6</v>
+      </c>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="6">
-        <v>2.8279422603578083E-7</v>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1.1004072387096653E-6</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1556,13 +2135,18 @@
       <c r="F46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>2.46434968402609E-6</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="2">
-        <v>4.3918186392949378E-4</v>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1.708941900804123E-3</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1573,13 +2157,18 @@
       <c r="F47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>3.8271562428141594E-3</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="2">
-        <v>8.9132850612996957E-4</v>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>3.4683322710046803E-3</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1590,13 +2179,18 @@
       <c r="F48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>7.7672912677040195E-3</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="6">
-        <v>4.0028752911655014E-6</v>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>1.5575964926148297E-5</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1607,13 +2201,18 @@
       <c r="F49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>3.4882198965870793E-5</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="2">
-        <v>284.41482331965437</v>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1106.7132973842222</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1624,13 +2223,18 @@
       <c r="F50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>2478.472031785559</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="2">
-        <v>9.237404518074234E-3</v>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>3.5944534444957613E-2</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1641,13 +2245,18 @@
       <c r="F51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>8.0497382228932601E-2</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="6">
-        <v>3.6463438887135146E-7</v>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1.4188632017746429E-6</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1658,13 +2267,18 @@
       <c r="F52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>3.1775282458789194E-6</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="2">
-        <v>7.0090832527493027E-2</v>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.27273703767445884</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1675,13 +2289,18 @@
       <c r="F53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0.61079154059672491</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="6">
-        <v>2.811736287519084E-6</v>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1.0941011800351119E-5</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1692,13 +2311,18 @@
       <c r="F54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>2.4502273362666298E-5</v>
+      </c>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="2">
-        <v>1.126315112291507E-2</v>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>4.3827107788150042E-2</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -1709,13 +2333,18 @@
       <c r="F55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>9.8150316928259873E-2</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="2">
-        <v>3.0848069298516263</v>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>12.003582687013454</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
@@ -1726,13 +2355,18 @@
       <c r="F56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>26.881888960135598</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="6">
-        <v>8.7512253329124274E-6</v>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>3.4052716842591409E-5</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1743,13 +2377,18 @@
       <c r="F57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>7.6260677901094002E-5</v>
+      </c>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="2">
-        <v>3.6220349294554164E-3</v>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1.4094041137628089E-2</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -1760,13 +2399,18 @@
       <c r="F58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>3.1563447242397194E-2</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="2">
-        <v>8.0543685008471772E-3</v>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>3.1341111612533196E-2</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -1777,13 +2421,18 @@
       <c r="F59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>7.0188068364525388E-2</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="6">
-        <v>9.0753447896869641E-10</v>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>3.5313928577502202E-9</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -1794,13 +2443,18 @@
       <c r="F60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>7.9085147452986395E-9</v>
+      </c>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="2">
-        <v>6.174475651554883E-4</v>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2.4026083550050615E-3</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -1811,13 +2465,18 @@
       <c r="F61" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>5.3806144963549681E-3</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="2">
-        <v>3.3951513097132493E-3</v>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1.3211192923190561E-2</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1828,13 +2487,18 @@
       <c r="F62" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>2.9586318556072598E-2</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="6">
-        <v>1.6205972838726769E-6</v>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>6.3060586745539836E-6</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1845,13 +2509,18 @@
       <c r="F63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>1.4122347759461898E-5</v>
+      </c>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="2">
-        <v>3.678755834390964E-3</v>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1.4314753191237492E-2</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1862,13 +2531,18 @@
       <c r="F64" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>3.2057729413978393E-2</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="2">
-        <v>4.5052604491660327E-2</v>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.17530843115260039</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1879,13 +2553,18 @@
       <c r="F65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>0.39260126771303994</v>
+      </c>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="2">
-        <v>1.7259361073243985E-5</v>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>6.7159524883999829E-5</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1896,13 +2575,18 @@
       <c r="F66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>1.5040300363826898E-4</v>
+      </c>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="2">
-        <v>4.1730380059721331E-4</v>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>1.6238101086976466E-3</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1913,13 +2597,18 @@
       <c r="F67" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>3.6365045480614296E-3</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="2">
-        <v>21.878063332281066</v>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>85.1317921064785</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -1930,13 +2619,18 @@
       <c r="F68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>190.65169475273498</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="2">
-        <v>1.7340390937437607E-5</v>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>6.7474827817727478E-5</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -1947,13 +2641,18 @@
       <c r="F69" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>1.51109121026242E-4</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="2">
-        <v>4.335097734359402E-2</v>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>0.1686870695443187</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -1964,13 +2663,18 @@
       <c r="F70" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>0.37777280256560497</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="2">
-        <v>0.10209762888397834</v>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>0.39728169649689976</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1981,13 +2685,18 @@
       <c r="F71" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>0.88970790884609685</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="6">
-        <v>2.6577795455511771E-6</v>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>1.0341936226268484E-5</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -1998,13 +2707,18 @@
       <c r="F72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>2.3160650325517398E-5</v>
+      </c>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2">
-        <v>1.0290792752591469E-3</v>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>4.0043472583417674E-3</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -2015,8 +2729,12 @@
       <c r="F73" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>8.9676908272582779E-3</v>
+      </c>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -2032,8 +2750,9 @@
       <c r="F74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,15 +2760,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2065,15 +2784,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2081,13 +2800,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2113,35 +2832,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84">
-        <v>6184.8937769512013</v>
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="2">
+        <f>0.03/H84</f>
+        <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85">
-        <v>439.41337782719</v>
+        <v>35</v>
+      </c>
+      <c r="B85" s="2">
+        <f>H85*0.0848884774183939/0.61/0.03</f>
+        <v>116521.65528797316</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -2150,55 +2874,67 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H85">
+        <v>25119.384357197399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86">
-        <v>704.26527679152309</v>
+        <v>30</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" ref="B86:B146" si="1">H86*0.0848884774183939/0.61/0.03</f>
+        <v>8278.4241713110096</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="H86">
+        <v>1784.6375261074597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87">
-        <v>18359.052087300406</v>
+        <v>38</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="1"/>
+        <v>13268.15928826558</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="H87">
+        <v>2860.3094596516798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88">
-        <v>1700.4695785778256</v>
+        <v>14</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="1"/>
+        <v>345879.36606162385</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -2210,38 +2946,46 @@
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H88">
+        <v>74563.62266613348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="6">
-        <v>1.135728554735565E-12</v>
+        <v>40</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="1"/>
+        <v>32036.367512265144</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H89">
+        <v>6906.3027551418691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B90" s="2">
-        <v>7749.9277253768187</v>
+        <f t="shared" si="1"/>
+        <v>2.1396805818844657E-11</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
@@ -2250,55 +2994,70 @@
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H90">
+        <v>4.6126583771193003E-12</v>
+      </c>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B91" s="2">
-        <v>-1610.1791584763469</v>
+        <f t="shared" si="1"/>
+        <v>146006.45370634104</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
       </c>
       <c r="G91" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91">
+        <v>31475.627600867792</v>
+      </c>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="1"/>
+        <v>-30335.321449667019</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" t="s">
-        <v>36</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>-6539.5964141608893</v>
+      </c>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B93" s="2">
-        <v>1.4311031586084167E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.1149786708441735E-2</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -2309,13 +3068,18 @@
       <c r="F93" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>6.7151763596241089E-3</v>
+      </c>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="6">
-        <v>8.141186212483212E-13</v>
+      <c r="B94" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7720330819418483E-11</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -2326,13 +3090,18 @@
       <c r="F94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>3.8200950689344294E-12</v>
+      </c>
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="6">
-        <v>2.1820184857856951E-3</v>
+      <c r="B95" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7494417168496665E-2</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -2343,13 +3112,18 @@
       <c r="F95" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>1.0238702125609797E-2</v>
+      </c>
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
       <c r="B96" s="2">
-        <v>0.65310070540068621</v>
+        <f t="shared" si="1"/>
+        <v>14.215570380088019</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -2360,13 +3134,18 @@
       <c r="F96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>3.0645494638032189</v>
+      </c>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="6">
-        <v>3.1150194935009672E-6</v>
+      <c r="B97" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7802374854336847E-5</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -2377,13 +3156,18 @@
       <c r="F97" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1.4616629931043001E-5</v>
+      </c>
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="6">
-        <v>1.1466883352887639E-3</v>
+      <c r="B98" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4959135091306647E-2</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -2394,13 +3178,18 @@
       <c r="F98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>5.3806144963549681E-3</v>
+      </c>
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="6">
-        <v>1.1963480663445764E-5</v>
+      <c r="B99" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6040042516520712E-4</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -2411,13 +3200,18 @@
       <c r="F99" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>5.6136332343860893E-5</v>
+      </c>
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="6">
-        <v>8.9237031866960193E-2</v>
+      <c r="B100" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9423578883392176</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -2428,13 +3222,18 @@
       <c r="F100" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>0.41872761106804401</v>
+      </c>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>51</v>
       </c>
       <c r="B101" s="2">
-        <v>2.1669700824354508E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.7166869463886405E-3</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -2445,13 +3244,18 @@
       <c r="F101" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1.0168090386812501E-3</v>
+      </c>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>25</v>
       </c>
       <c r="B102" s="2">
-        <v>32.463920547486147</v>
+        <f t="shared" si="1"/>
+        <v>706.61866315584916</v>
       </c>
       <c r="C102" t="s">
         <v>26</v>
@@ -2462,13 +3266,18 @@
       <c r="F102" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>152.33070410743497</v>
+      </c>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="6">
-        <v>3.3708423504551621E-6</v>
+      <c r="B103" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3370685832712532E-5</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -2479,13 +3288,18 @@
       <c r="F103" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1.5817029490597299E-5</v>
+      </c>
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>54</v>
       </c>
-      <c r="B104" s="6">
-        <v>1.5198887383748708E-4</v>
+      <c r="B104" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3082318165642672E-3</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -2496,13 +3310,18 @@
       <c r="F104" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>7.1317856185282389E-4</v>
+      </c>
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>55</v>
       </c>
       <c r="B105" s="2">
-        <v>6.3052810037531772</v>
+        <f t="shared" si="1"/>
+        <v>137.24248823172556</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
@@ -2513,13 +3332,18 @@
       <c r="F105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>29.586318556072602</v>
+      </c>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>56</v>
       </c>
-      <c r="B106" s="6">
-        <v>8.7581707498433116E-8</v>
+      <c r="B106" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9063276408320819E-6</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -2530,13 +3354,18 @@
       <c r="F106" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>4.1096031980033995E-7</v>
+      </c>
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>57</v>
       </c>
-      <c r="B107" s="6">
-        <v>8.7581707498433117E-5</v>
+      <c r="B107" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9063276408320818E-3</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -2547,13 +3376,18 @@
       <c r="F107" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>4.1096031980033995E-4</v>
+      </c>
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>58</v>
       </c>
       <c r="B108" s="2">
-        <v>13.528514611871362</v>
+        <f t="shared" si="1"/>
+        <v>294.46538644468052</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
@@ -2564,13 +3398,18 @@
       <c r="F108" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>63.479953178781003</v>
+      </c>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
-      <c r="B109" s="6">
-        <v>1.4642096459789586E-5</v>
+      <c r="B109" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1870391658584448E-4</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -2581,13 +3420,18 @@
       <c r="F109" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>6.8705221849781899E-5</v>
+      </c>
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>60</v>
       </c>
-      <c r="B110" s="6">
-        <v>3.3708423504551622E-7</v>
+      <c r="B110" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3370685832712535E-6</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -2598,13 +3442,18 @@
       <c r="F110" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>1.5817029490597298E-6</v>
+      </c>
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>61</v>
       </c>
-      <c r="B111" s="6">
-        <v>2.9344386532980144E-3</v>
+      <c r="B111" s="2">
+        <f t="shared" si="1"/>
+        <v>6.3871802399013008E-2</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -2615,13 +3464,18 @@
       <c r="F111" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>1.3769289065475299E-2</v>
+      </c>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>62</v>
       </c>
       <c r="B112" s="2">
-        <v>6.1999421803014453E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3494965429945314</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -2632,13 +3486,18 @@
       <c r="F112" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>0.29092036384491399</v>
+      </c>
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>63</v>
       </c>
-      <c r="B113" s="6">
-        <v>3.7019072241605788E-9</v>
+      <c r="B113" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0576735334139634E-8</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -2649,13 +3508,18 @@
       <c r="F113" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>1.73704877441381E-8</v>
+      </c>
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>64</v>
       </c>
-      <c r="B114" s="6">
-        <v>2.3926961326891573E-2</v>
+      <c r="B114" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52080085033041523</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -2666,13 +3530,18 @@
       <c r="F114" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>0.11227266468772198</v>
+      </c>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>65</v>
       </c>
-      <c r="B115" s="6">
-        <v>1.6854211752275788E-9</v>
+      <c r="B115" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6685342916356225E-8</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -2683,13 +3552,18 @@
       <c r="F115" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>7.9085147452986395E-9</v>
+      </c>
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>66</v>
       </c>
-      <c r="B116" s="6">
-        <v>6.7567331042605692E-6</v>
+      <c r="B116" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4706891937003535E-4</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -2700,13 +3574,18 @@
       <c r="F116" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>3.1704670719991896E-5</v>
+      </c>
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>67</v>
       </c>
-      <c r="B117" s="6">
-        <v>1.9412440321817657E-3</v>
+      <c r="B117" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2253653894731728E-2</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -2717,13 +3596,18 @@
       <c r="F117" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>9.1089143048528991E-3</v>
+      </c>
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="6">
-        <v>5.3271347859871727E-7</v>
+      <c r="B118" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1595188743205457E-5</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -2734,13 +3618,18 @@
       <c r="F118" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>2.4996555534247502E-6</v>
+      </c>
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>69</v>
       </c>
-      <c r="B119" s="6">
-        <v>5.2518927692359289E-7</v>
+      <c r="B119" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1431414890900267E-5</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -2751,13 +3640,18 @@
       <c r="F119" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>2.46434968402609E-6</v>
+      </c>
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>70</v>
       </c>
-      <c r="B120" s="6">
-        <v>8.1562346158334546E-4</v>
+      <c r="B120" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7753085589879512E-2</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -2768,13 +3662,18 @@
       <c r="F120" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>3.8271562428141594E-3</v>
+      </c>
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>71</v>
       </c>
       <c r="B121" s="2">
-        <v>1.6553243685270864E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.6030247507135564E-2</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -2785,13 +3684,18 @@
       <c r="F121" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>7.7672912677040195E-3</v>
+      </c>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="6">
-        <v>7.4339112550216459E-6</v>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6180856607749981E-4</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -2802,13 +3706,18 @@
       <c r="F122" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>3.4882198965870793E-5</v>
+      </c>
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="6">
-        <v>528.19895759364397</v>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>11496.924431822366</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -2819,13 +3728,18 @@
       <c r="F123" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>2478.472031785559</v>
+      </c>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
       <c r="B124" s="2">
-        <v>1.7155179819280716E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.37340438325576875</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -2836,13 +3750,18 @@
       <c r="F124" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>8.0497382228932601E-2</v>
+      </c>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="6">
-        <v>6.7717815076108133E-7</v>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>1.473964670746456E-5</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -2853,13 +3772,18 @@
       <c r="F125" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>3.1775282458789194E-6</v>
+      </c>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>75</v>
       </c>
-      <c r="B126" s="6">
-        <v>0.13016868897962994</v>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8332876448792956</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -2870,13 +3794,18 @@
       <c r="F126" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>0.61079154059672491</v>
+      </c>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="6">
-        <v>5.221795962535441E-6</v>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1365905349978212E-4</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -2887,13 +3816,18 @@
       <c r="F127" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>2.4502273362666298E-5</v>
+      </c>
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>77</v>
       </c>
-      <c r="B128" s="6">
-        <v>2.0917280656842275E-2</v>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45529130940834939</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -2904,13 +3838,18 @@
       <c r="F128" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>9.8150316928259873E-2</v>
+      </c>
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
       <c r="B129" s="2">
-        <v>5.7289271554387344</v>
+        <f t="shared" si="1"/>
+        <v>124.69741114514991</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
@@ -2921,13 +3860,18 @@
       <c r="F129" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>26.881888960135598</v>
+      </c>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="6">
-        <v>1.6252275618265935E-5</v>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5375152097914917E-4</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -2938,13 +3882,18 @@
       <c r="F130" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>7.6260677901094002E-5</v>
+      </c>
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>79</v>
       </c>
-      <c r="B131" s="6">
-        <v>6.7266362975600593E-3</v>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14641382396081429</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -2955,13 +3904,18 @@
       <c r="F131" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>3.1563447242397194E-2</v>
+      </c>
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>80</v>
       </c>
       <c r="B132" s="2">
-        <v>1.4958112930144757E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.32558241838266128</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -2972,13 +3926,18 @@
       <c r="F132" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>7.0188068364525388E-2</v>
+      </c>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="6">
-        <v>1.6854211752275788E-9</v>
+      <c r="B133" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6685342916356225E-8</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -2989,13 +3948,18 @@
       <c r="F133" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>7.9085147452986395E-9</v>
+      </c>
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
-      <c r="B134" s="6">
-        <v>1.1466883352887639E-3</v>
+      <c r="B134" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4959135091306647E-2</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -3006,13 +3970,18 @@
       <c r="F134" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>5.3806144963549681E-3</v>
+      </c>
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>82</v>
       </c>
       <c r="B135" s="2">
-        <v>6.3052810037531777E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.13724248823172555</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -3023,13 +3992,18 @@
       <c r="F135" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>2.9586318556072598E-2</v>
+      </c>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>83</v>
       </c>
-      <c r="B136" s="6">
-        <v>3.0096806700492572E-6</v>
+      <c r="B136" s="2">
+        <f t="shared" si="1"/>
+        <v>6.550954092206487E-5</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -3040,13 +4014,18 @@
       <c r="F136" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>1.4122347759461898E-5</v>
+      </c>
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
-      <c r="B137" s="6">
-        <v>6.8319751210117897E-3</v>
+      <c r="B137" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14870665789308674</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -3057,13 +4036,18 @@
       <c r="F137" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>3.2057729413978393E-2</v>
+      </c>
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>85</v>
       </c>
       <c r="B138" s="2">
-        <v>8.3669122627369183E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.8211652376333995</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -3074,13 +4058,18 @@
       <c r="F138" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>0.39260126771303994</v>
+      </c>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
       <c r="B139" s="2">
-        <v>3.2053099136024544E-5</v>
+        <f t="shared" si="1"/>
+        <v>6.976766108199898E-4</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3091,13 +4080,18 @@
       <c r="F139" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>1.5040300363826898E-4</v>
+      </c>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>83</v>
       </c>
       <c r="B140" s="2">
-        <v>7.7499277253768178E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.6868706787431662E-2</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -3108,13 +4102,18 @@
       <c r="F140" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>3.6365045480614296E-3</v>
+      </c>
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
       <c r="B141" s="2">
-        <v>40.630689045664845</v>
+        <f t="shared" si="1"/>
+        <v>884.37880244787277</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -3125,13 +4124,18 @@
       <c r="F141" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>190.65169475273498</v>
+      </c>
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
       <c r="B142" s="2">
-        <v>3.2203583169526988E-5</v>
+        <f t="shared" si="1"/>
+        <v>7.0095208786609268E-4</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -3142,13 +4146,18 @@
       <c r="F142" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>1.51109121026242E-4</v>
+      </c>
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
       <c r="B143" s="2">
-        <v>8.0508957923817459E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7523802196652318</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -3159,13 +4168,18 @@
       <c r="F143" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>0.37777280256560497</v>
+      </c>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
       <c r="B144" s="2">
-        <v>0.18960988221310263</v>
+        <f t="shared" si="1"/>
+        <v>4.1271010780900745</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -3176,13 +4190,18 @@
       <c r="F144" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>0.88970790884609685</v>
+      </c>
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
-      <c r="B145" s="6">
-        <v>4.9358762988807574E-6</v>
+      <c r="B145" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0743564711218586E-4</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -3193,13 +4212,18 @@
       <c r="F145" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>2.3160650325517398E-5</v>
+      </c>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
-      <c r="B146" s="6">
-        <v>1.9111472254812727E-3</v>
+      <c r="B146" s="2">
+        <f t="shared" si="1"/>
+        <v>4.159855848551107E-2</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -3210,10 +4234,14 @@
       <c r="F146" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>8.9676908272582779E-3</v>
+      </c>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
@@ -3227,8 +4255,11 @@
       <c r="F147" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -3236,23 +4267,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -3268,7 +4299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -3276,13 +4307,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -3308,60 +4339,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B158" s="2">
-        <v>41484.015836092483</v>
+        <f>0.29/H158</f>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>101</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>102</v>
+      </c>
+      <c r="B159" s="2">
+        <f>H159*0.0493378453990471/0.08/0.29</f>
+        <v>110276.50645758364</v>
+      </c>
+      <c r="C159" t="s">
         <v>19</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E159" t="s">
         <v>15</v>
-      </c>
-      <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s">
-        <v>20</v>
-      </c>
-      <c r="H158">
-        <f>B158*8/10</f>
-        <v>33187.212668873988</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>105</v>
-      </c>
-      <c r="B159" s="2">
-        <v>6.8188301333819989</v>
-      </c>
-      <c r="C159" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" t="s">
-        <v>3</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="H159">
-        <f t="shared" ref="H159:H222" si="0">B159*8/10</f>
-        <v>5.4550641067055992</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51855.019795115601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B160" s="2">
-        <v>-13939.972932776</v>
+        <f>H160*0.0493378453990471/0.08/0.29</f>
+        <v>18.126421709222242</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -3373,22 +4405,22 @@
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H160">
-        <f t="shared" si="0"/>
-        <v>-11151.9783462208</v>
+        <v>8.5235376667274991</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B161" s="2">
-        <v>6.6844689484877684E-4</v>
+        <f t="shared" ref="B161:B224" si="2">H161*0.0493378453990471/0.08/0.29</f>
+        <v>-37056.477878459242</v>
       </c>
       <c r="C161" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
         <v>3</v>
@@ -3397,115 +4429,115 @@
         <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H161">
-        <f t="shared" si="0"/>
-        <v>5.3475751587902143E-4</v>
+        <v>-17424.96616597</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B162" s="2">
-        <v>60.126630240166399</v>
+        <f t="shared" si="2"/>
+        <v>1.776925083810455E-3</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E162" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H162">
-        <f t="shared" si="0"/>
-        <v>48.101304192133121</v>
+        <v>8.3555861856097102E-4</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>43</v>
-      </c>
-      <c r="B163" s="6">
-        <v>4.8705929524157117E-8</v>
+        <v>106</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="2"/>
+        <v>159.83396482516164</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="H163">
-        <f t="shared" si="0"/>
-        <v>3.8964743619325695E-8</v>
+        <v>75.158287800208001</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B164" s="2">
-        <v>8834.2479067953591</v>
+        <f t="shared" si="2"/>
+        <v>1.2947444078015882E-7</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>18</v>
-      </c>
-      <c r="H164">
-        <f t="shared" si="0"/>
-        <v>7067.3983254362875</v>
+        <v>41</v>
+      </c>
+      <c r="H164" s="18">
+        <v>6.0882411905196394E-8</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>109</v>
-      </c>
-      <c r="B165" s="6">
-        <v>1.3436118489422639E-10</v>
+        <v>35</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="2"/>
+        <v>23483.984775987334</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="H165">
-        <f t="shared" si="0"/>
-        <v>1.0748894791538111E-10</v>
+        <v>11042.809883494199</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>110</v>
-      </c>
-      <c r="B166" s="6">
-        <v>1.6761557815554799E-6</v>
+        <v>107</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5717087111767917E-10</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -3517,22 +4549,22 @@
         <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>120</v>
-      </c>
-      <c r="H166">
-        <f t="shared" si="0"/>
-        <v>1.3409246252443838E-6</v>
+        <v>117</v>
+      </c>
+      <c r="H166" s="18">
+        <v>1.6795148111778299E-10</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B167" s="2">
-        <v>2317.7304394254079</v>
+        <f t="shared" si="2"/>
+        <v>4.4557066171930618E-6</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E167" t="s">
         <v>3</v>
@@ -3541,22 +4573,22 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
-      </c>
-      <c r="H167">
-        <f t="shared" si="0"/>
-        <v>1854.1843515403264</v>
+        <v>118</v>
+      </c>
+      <c r="H167" s="18">
+        <v>2.0951947269443498E-6</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B168" s="2">
-        <v>1414.151471011736</v>
+        <f t="shared" si="2"/>
+        <v>6161.1975267799717</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E168" t="s">
         <v>3</v>
@@ -3565,19 +4597,19 @@
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <f t="shared" si="0"/>
-        <v>1131.3211768093888</v>
+        <v>2897.1630492817599</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B169" s="2">
-        <v>-8128.8516861007201</v>
+        <f t="shared" si="2"/>
+        <v>3759.2234185135812</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -3589,19 +4621,19 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H169">
-        <f t="shared" si="0"/>
-        <v>-6503.0813488805761</v>
+        <v>1767.6893387646701</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B170" s="2">
-        <v>1.508204300437696E-2</v>
+        <f t="shared" si="2"/>
+        <v>-21608.837702619647</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -3613,67 +4645,67 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H170">
-        <f t="shared" si="0"/>
-        <v>1.2065634403501568E-2</v>
+        <v>-10161.0646076259</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B171" s="2">
-        <v>1.0614533606643921</v>
+        <f t="shared" si="2"/>
+        <v>4.0092430282959612E-2</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F171" t="s">
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H171">
-        <f t="shared" si="0"/>
-        <v>0.84916268853151367</v>
+        <v>1.8852553755471201E-2</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B172" s="2">
-        <v>0.28999999999999998</v>
+        <f t="shared" si="2"/>
+        <v>2.8216498818296745</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="H172">
-        <f t="shared" si="0"/>
-        <v>0.23199999999999998</v>
+        <v>1.3268167008304901</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>65</v>
       </c>
-      <c r="B173" s="6">
-        <v>6.147024208910864E-7</v>
+      <c r="B173" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6340567353633837E-6</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -3684,9 +4716,8 @@
       <c r="F173" t="s">
         <v>24</v>
       </c>
-      <c r="H173">
-        <f t="shared" si="0"/>
-        <v>4.9176193671286916E-7</v>
+      <c r="H173" s="18">
+        <v>7.68378026113858E-7</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -3694,7 +4725,8 @@
         <v>66</v>
       </c>
       <c r="B174" s="2">
-        <v>2.4655277428090559E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.5540854850094157E-3</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -3706,8 +4738,7 @@
         <v>24</v>
       </c>
       <c r="H174">
-        <f t="shared" si="0"/>
-        <v>1.9724221942472447E-3</v>
+        <v>3.0819096785113199E-3</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,7 +4746,8 @@
         <v>64</v>
       </c>
       <c r="B175" s="2">
-        <v>1.464536915347072E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.8931624951827138E-3</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -3727,8 +4759,7 @@
         <v>24</v>
       </c>
       <c r="H175">
-        <f t="shared" si="0"/>
-        <v>1.1716295322776577E-3</v>
+        <v>1.8306711441838401E-3</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -3736,7 +4767,8 @@
         <v>82</v>
       </c>
       <c r="B176" s="2">
-        <v>0.38628840657090163</v>
+        <f t="shared" si="2"/>
+        <v>1.0268662544633294</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -3748,8 +4780,7 @@
         <v>24</v>
       </c>
       <c r="H176">
-        <f t="shared" si="0"/>
-        <v>0.30903072525672132</v>
+        <v>0.48286050821362703</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -3757,7 +4788,8 @@
         <v>54</v>
       </c>
       <c r="B177" s="2">
-        <v>6.953191318276224E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8483592580339917E-3</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -3769,16 +4801,16 @@
         <v>24</v>
       </c>
       <c r="H177">
-        <f t="shared" si="0"/>
-        <v>5.5625530546209796E-4</v>
+        <v>8.69148914784528E-4</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="6">
-        <v>1.8508253219179682E-8</v>
+      <c r="B178" s="2">
+        <f t="shared" si="2"/>
+        <v>4.920028749646029E-8</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -3789,17 +4821,17 @@
       <c r="F178" t="s">
         <v>24</v>
       </c>
-      <c r="H178">
-        <f t="shared" si="0"/>
-        <v>1.4806602575343745E-8</v>
+      <c r="H178" s="18">
+        <v>2.3135316523974601E-8</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>72</v>
       </c>
-      <c r="B179" s="6">
-        <v>6.147024208910864E-7</v>
+      <c r="B179" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6340567353633837E-6</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -3810,9 +4842,8 @@
       <c r="F179" t="s">
         <v>24</v>
       </c>
-      <c r="H179">
-        <f t="shared" si="0"/>
-        <v>4.9176193671286916E-7</v>
+      <c r="H179" s="18">
+        <v>7.68378026113858E-7</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -3820,7 +4851,8 @@
         <v>67</v>
       </c>
       <c r="B180" s="2">
-        <v>0.12361229010268879</v>
+        <f t="shared" si="2"/>
+        <v>0.32859720142826615</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -3832,8 +4864,7 @@
         <v>24</v>
       </c>
       <c r="H180">
-        <f t="shared" si="0"/>
-        <v>9.8889832082151033E-2</v>
+        <v>0.15451536262836099</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -3841,7 +4872,8 @@
         <v>69</v>
       </c>
       <c r="B181" s="2">
-        <v>1.0816075383985201E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.8752255124973106E-2</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -3853,16 +4885,16 @@
         <v>24</v>
       </c>
       <c r="H181">
-        <f t="shared" si="0"/>
-        <v>8.6528603071881604E-3</v>
+        <v>1.3520094229981501E-2</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
-      <c r="B182" s="6">
-        <v>1.3570479674316881E-6</v>
+      <c r="B182" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6074257982885631E-6</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -3873,9 +4905,8 @@
       <c r="F182" t="s">
         <v>24</v>
       </c>
-      <c r="H182">
-        <f t="shared" si="0"/>
-        <v>1.0856383739453506E-6</v>
+      <c r="H182" s="18">
+        <v>1.6963099592896101E-6</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -3883,7 +4914,8 @@
         <v>25</v>
       </c>
       <c r="B183" s="2">
-        <v>271.12743499805839</v>
+        <f t="shared" si="2"/>
+        <v>720.73510082836196</v>
       </c>
       <c r="C183" t="s">
         <v>26</v>
@@ -3895,16 +4927,16 @@
         <v>24</v>
       </c>
       <c r="H183">
-        <f t="shared" si="0"/>
-        <v>216.9019479984467</v>
+        <v>338.90929374757297</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>72</v>
       </c>
-      <c r="B184" s="6">
-        <v>7.7593584276415841E-6</v>
+      <c r="B184" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0626617807045995E-5</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -3915,17 +4947,17 @@
       <c r="F184" t="s">
         <v>24</v>
       </c>
-      <c r="H184">
-        <f t="shared" si="0"/>
-        <v>6.2074867421132676E-6</v>
+      <c r="H184" s="18">
+        <v>9.6991980345519797E-6</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B185" s="2">
-        <v>7.4570457616295761E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.9822983347031222E-2</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
@@ -3937,29 +4969,28 @@
         <v>24</v>
       </c>
       <c r="H185">
-        <f t="shared" si="0"/>
-        <v>5.9656366093036612E-3</v>
+        <v>9.3213072020369696E-3</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B186" s="2">
-        <v>5.340857099545504</v>
+        <f t="shared" si="2"/>
+        <v>14.197542126927756</v>
       </c>
       <c r="C186" t="s">
+        <v>133</v>
+      </c>
+      <c r="D186" t="s">
         <v>135</v>
       </c>
-      <c r="D186" t="s">
-        <v>137</v>
-      </c>
       <c r="F186" t="s">
         <v>24</v>
       </c>
       <c r="H186">
-        <f t="shared" si="0"/>
-        <v>4.2726856796364032</v>
+        <v>6.6760713744318796</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -3967,7 +4998,8 @@
         <v>25</v>
       </c>
       <c r="B187" s="2">
-        <v>47.846017940833761</v>
+        <f t="shared" si="2"/>
+        <v>127.18854720500485</v>
       </c>
       <c r="C187" t="s">
         <v>26</v>
@@ -3979,16 +5011,16 @@
         <v>24</v>
       </c>
       <c r="H187">
-        <f t="shared" si="0"/>
-        <v>38.27681435266701</v>
+        <v>59.807522426042198</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B188" s="2">
-        <v>3.0130495712530321</v>
+        <f t="shared" si="2"/>
+        <v>8.0095567848139684</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -4000,16 +5032,16 @@
         <v>24</v>
       </c>
       <c r="H188">
-        <f t="shared" si="0"/>
-        <v>2.4104396570024256</v>
+        <v>3.7663119640662899</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B189" s="2">
-        <v>9.3381023501487206E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.24823375542678661</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -4021,8 +5053,7 @@
         <v>24</v>
       </c>
       <c r="H189">
-        <f t="shared" si="0"/>
-        <v>7.470481880118976E-2</v>
+        <v>0.116726279376859</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -4030,7 +5061,8 @@
         <v>74</v>
       </c>
       <c r="B190" s="2">
-        <v>6.8524204296055522E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.8215714427001651E-3</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -4042,16 +5074,16 @@
         <v>24</v>
       </c>
       <c r="H190">
-        <f t="shared" si="0"/>
-        <v>5.4819363436844416E-4</v>
+        <v>8.5655255370069403E-4</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>56</v>
       </c>
-      <c r="B191" s="6">
-        <v>3.2045142597273042E-5</v>
+      <c r="B191" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5185252761566592E-5</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
@@ -4062,9 +5094,8 @@
       <c r="F191" t="s">
         <v>24</v>
       </c>
-      <c r="H191">
-        <f t="shared" si="0"/>
-        <v>2.5636114077818433E-5</v>
+      <c r="H191" s="18">
+        <v>4.0056428246591303E-5</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,7 +5103,8 @@
         <v>47</v>
       </c>
       <c r="B192" s="2">
-        <v>8.7670673143483202E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.23305399340428692</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -4084,8 +5116,7 @@
         <v>24</v>
       </c>
       <c r="H192">
-        <f t="shared" si="0"/>
-        <v>7.0136538514786559E-2</v>
+        <v>0.109588341429354</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -4093,7 +5124,8 @@
         <v>52</v>
       </c>
       <c r="B193" s="2">
-        <v>7.2555039842882321E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.19287227040354687</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -4105,8 +5137,7 @@
         <v>24</v>
       </c>
       <c r="H193">
-        <f t="shared" si="0"/>
-        <v>5.804403187430586E-2</v>
+        <v>9.0693799803602898E-2</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -4114,7 +5145,8 @@
         <v>71</v>
       </c>
       <c r="B194" s="2">
-        <v>0.60798436164637526</v>
+        <f t="shared" si="2"/>
+        <v>1.6161981918075004</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -4126,8 +5158,7 @@
         <v>24</v>
       </c>
       <c r="H194">
-        <f t="shared" si="0"/>
-        <v>0.48638748931710019</v>
+        <v>0.75998045205796905</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -4135,7 +5166,8 @@
         <v>84</v>
       </c>
       <c r="B195" s="2">
-        <v>4.1987870279445761E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1161589722427476E-3</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -4147,8 +5179,7 @@
         <v>24</v>
       </c>
       <c r="H195">
-        <f t="shared" si="0"/>
-        <v>3.3590296223556609E-4</v>
+        <v>5.2484837849307202E-4</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -4156,7 +5187,8 @@
         <v>50</v>
       </c>
       <c r="B196" s="2">
-        <v>39.972452506032404</v>
+        <f t="shared" si="2"/>
+        <v>106.25833415750967</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -4168,29 +5200,28 @@
         <v>24</v>
       </c>
       <c r="H196">
-        <f t="shared" si="0"/>
-        <v>31.977962004825923</v>
+        <v>49.965565632540503</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B197" s="2">
-        <v>7.5242263540766879E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.20001568782590057</v>
       </c>
       <c r="C197" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D197" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F197" t="s">
         <v>24</v>
       </c>
       <c r="H197">
-        <f t="shared" si="0"/>
-        <v>6.0193810832613506E-2</v>
+        <v>9.4052829425958606E-2</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,7 +5229,8 @@
         <v>84</v>
       </c>
       <c r="B198" s="2">
-        <v>1.172301338202128E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.116315850501758E-2</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
@@ -4210,8 +5242,7 @@
         <v>24</v>
       </c>
       <c r="H198">
-        <f t="shared" si="0"/>
-        <v>9.3784107056170234E-3</v>
+        <v>1.46537667275266E-2</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -4219,7 +5250,8 @@
         <v>91</v>
       </c>
       <c r="B199" s="2">
-        <v>0.11689423085797682</v>
+        <f t="shared" si="2"/>
+        <v>0.31073865787238047</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
@@ -4231,8 +5263,7 @@
         <v>24</v>
       </c>
       <c r="H199">
-        <f t="shared" si="0"/>
-        <v>9.3515384686381459E-2</v>
+        <v>0.14611778857247101</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -4240,7 +5271,8 @@
         <v>53</v>
       </c>
       <c r="B200" s="2">
-        <v>1.232763871404528E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.2770427425047079E-3</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -4252,8 +5284,7 @@
         <v>24</v>
       </c>
       <c r="H200">
-        <f t="shared" si="0"/>
-        <v>9.8621109712362237E-4</v>
+        <v>1.54095483925566E-3</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -4261,7 +5292,8 @@
         <v>55</v>
       </c>
       <c r="B201" s="2">
-        <v>4.2323773241681355</v>
+        <f t="shared" si="2"/>
+        <v>11.250882440206903</v>
       </c>
       <c r="C201" t="s">
         <v>26</v>
@@ -4273,8 +5305,7 @@
         <v>24</v>
       </c>
       <c r="H201">
-        <f t="shared" si="0"/>
-        <v>3.3859018593345085</v>
+        <v>5.2904716552101698</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -4282,7 +5313,8 @@
         <v>59</v>
       </c>
       <c r="B202" s="2">
-        <v>0.18944927070085921</v>
+        <f t="shared" si="2"/>
+        <v>0.50361092827592746</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -4294,8 +5326,7 @@
         <v>24</v>
       </c>
       <c r="H202">
-        <f t="shared" si="0"/>
-        <v>0.15155941656068736</v>
+        <v>0.23681158837607399</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -4303,7 +5334,8 @@
         <v>62</v>
       </c>
       <c r="B203" s="2">
-        <v>9909.1373859491996</v>
+        <f t="shared" si="2"/>
+        <v>26341.351744928845</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -4315,8 +5347,7 @@
         <v>24</v>
       </c>
       <c r="H203">
-        <f t="shared" si="0"/>
-        <v>7927.30990875936</v>
+        <v>12386.4217324365</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -4324,7 +5355,8 @@
         <v>87</v>
       </c>
       <c r="B204" s="2">
-        <v>1.172301338202128E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.116315850501758E-2</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -4336,8 +5368,7 @@
         <v>24</v>
       </c>
       <c r="H204">
-        <f t="shared" si="0"/>
-        <v>9.3784107056170234E-3</v>
+        <v>1.46537667275266E-2</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,7 +5376,8 @@
         <v>58</v>
       </c>
       <c r="B205" s="2">
-        <v>314.74107561472402</v>
+        <f t="shared" si="2"/>
+        <v>836.67276559315985</v>
       </c>
       <c r="C205" t="s">
         <v>26</v>
@@ -4357,8 +5389,7 @@
         <v>24</v>
       </c>
       <c r="H205">
-        <f t="shared" si="0"/>
-        <v>251.79286049177921</v>
+        <v>393.42634451840502</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -4366,7 +5397,8 @@
         <v>76</v>
       </c>
       <c r="B206" s="2">
-        <v>5.8447115428988561E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.15536932893619063</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -4378,8 +5410,7 @@
         <v>24</v>
       </c>
       <c r="H206">
-        <f t="shared" si="0"/>
-        <v>4.6757692343190847E-2</v>
+        <v>7.3058894286235701E-2</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -4387,7 +5418,8 @@
         <v>51</v>
       </c>
       <c r="B207" s="2">
-        <v>5.5759891731104003E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.14822591151383699</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
@@ -4399,8 +5431,7 @@
         <v>24</v>
       </c>
       <c r="H207">
-        <f t="shared" si="0"/>
-        <v>4.4607913384883201E-2</v>
+        <v>6.9699864663880007E-2</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -4408,7 +5439,8 @@
         <v>68</v>
       </c>
       <c r="B208" s="2">
-        <v>1.2092506640480399E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.2145378400591187E-2</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -4420,16 +5452,16 @@
         <v>24</v>
       </c>
       <c r="H208">
-        <f t="shared" si="0"/>
-        <v>9.6740053123843192E-3</v>
+        <v>1.5115633300600499E-2</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B209" s="2">
-        <v>1195.8145455586159</v>
+        <f t="shared" si="2"/>
+        <v>3178.820752947347</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -4441,8 +5473,7 @@
         <v>24</v>
       </c>
       <c r="H209">
-        <f t="shared" si="0"/>
-        <v>956.65163644689278</v>
+        <v>1494.76818194827</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -4450,7 +5481,8 @@
         <v>61</v>
       </c>
       <c r="B210" s="2">
-        <v>0.18575433811626801</v>
+        <f t="shared" si="2"/>
+        <v>0.49378872932019141</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
@@ -4462,8 +5494,7 @@
         <v>24</v>
       </c>
       <c r="H210">
-        <f t="shared" si="0"/>
-        <v>0.14860347049301442</v>
+        <v>0.232192922645335</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -4471,7 +5502,8 @@
         <v>89</v>
       </c>
       <c r="B211" s="2">
-        <v>11.655832789574159</v>
+        <f t="shared" si="2"/>
+        <v>30.984573069458722</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -4483,8 +5515,7 @@
         <v>24</v>
       </c>
       <c r="H211">
-        <f t="shared" si="0"/>
-        <v>9.324666231659327</v>
+        <v>14.5697909869677</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -4492,7 +5523,8 @@
         <v>83</v>
       </c>
       <c r="B212" s="2">
-        <v>5.1393153222041685E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.3661785820251249E-3</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
@@ -4504,8 +5536,7 @@
         <v>24</v>
       </c>
       <c r="H212">
-        <f t="shared" si="0"/>
-        <v>4.1114522577633347E-4</v>
+        <v>6.4241441527552101E-4</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -4513,7 +5544,8 @@
         <v>77</v>
       </c>
       <c r="B213" s="2">
-        <v>6.9867816144997767E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.8572885298119329E-2</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
@@ -4525,8 +5557,7 @@
         <v>24</v>
       </c>
       <c r="H213">
-        <f t="shared" si="0"/>
-        <v>5.589425291599821E-3</v>
+        <v>8.7334770181247204E-3</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -4534,7 +5565,8 @@
         <v>83</v>
       </c>
       <c r="B214" s="2">
-        <v>5.7775309504517439E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.15358347458060226</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -4546,29 +5578,28 @@
         <v>24</v>
       </c>
       <c r="H214">
-        <f t="shared" si="0"/>
-        <v>4.622024760361395E-2</v>
+        <v>7.2219136880646795E-2</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B215" s="2">
-        <v>7.5242263540766879E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.20001568782590057</v>
       </c>
       <c r="C215" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D215" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
       </c>
       <c r="H215">
-        <f t="shared" si="0"/>
-        <v>6.0193810832613506E-2</v>
+        <v>9.4052829425958606E-2</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -4576,7 +5607,8 @@
         <v>49</v>
       </c>
       <c r="B216" s="2">
-        <v>3.2481816448179284E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.6346058092699081E-3</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
@@ -4588,8 +5620,7 @@
         <v>24</v>
       </c>
       <c r="H216">
-        <f t="shared" si="0"/>
-        <v>2.5985453158543425E-3</v>
+        <v>4.0602270560224103E-3</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,7 +5628,8 @@
         <v>90</v>
       </c>
       <c r="B217" s="2">
-        <v>7.4570457616295757E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.19822983347031223</v>
       </c>
       <c r="C217" t="s">
         <v>7</v>
@@ -4609,8 +5641,7 @@
         <v>24</v>
       </c>
       <c r="H217">
-        <f t="shared" si="0"/>
-        <v>5.9656366093036609E-2</v>
+        <v>9.32130720203697E-2</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -4618,7 +5649,8 @@
         <v>78</v>
       </c>
       <c r="B218" s="2">
-        <v>0.36949325845912318</v>
+        <f t="shared" si="2"/>
+        <v>0.98221989557361922</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
@@ -4630,8 +5662,7 @@
         <v>24</v>
       </c>
       <c r="H218">
-        <f t="shared" si="0"/>
-        <v>0.29559460676729854</v>
+        <v>0.461866573073904</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -4639,7 +5670,8 @@
         <v>32</v>
       </c>
       <c r="B219" s="2">
-        <v>1.1823784270691921E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1431036658355761E-2</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -4651,8 +5683,7 @@
         <v>24</v>
       </c>
       <c r="H219">
-        <f t="shared" si="0"/>
-        <v>9.4590274165535365E-3</v>
+        <v>1.47797303383649E-2</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -4660,7 +5691,8 @@
         <v>70</v>
       </c>
       <c r="B220" s="2">
-        <v>1.02450403481848E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.7234278922723133E-4</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -4672,16 +5704,16 @@
         <v>24</v>
       </c>
       <c r="H220">
-        <f t="shared" si="0"/>
-        <v>8.1960322785478394E-5</v>
+        <v>1.2806300435231E-4</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B221" s="2">
-        <v>0.27241730237304396</v>
+        <f t="shared" si="2"/>
+        <v>0.7241639411910944</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -4693,8 +5725,7 @@
         <v>24</v>
       </c>
       <c r="H221">
-        <f t="shared" si="0"/>
-        <v>0.21793384189843518</v>
+        <v>0.34052162796630497</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -4702,7 +5733,8 @@
         <v>88</v>
       </c>
       <c r="B222" s="2">
-        <v>4.9377735448628236E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.3126029513574717E-2</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -4714,8 +5746,7 @@
         <v>24</v>
       </c>
       <c r="H222">
-        <f t="shared" si="0"/>
-        <v>3.9502188358902591E-3</v>
+        <v>6.1722169310785297E-3</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -4723,7 +5754,8 @@
         <v>81</v>
       </c>
       <c r="B223" s="2">
-        <v>7.2555039842882321E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.19287227040354687</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
@@ -4735,16 +5767,16 @@
         <v>24</v>
       </c>
       <c r="H223">
-        <f t="shared" ref="H223:H232" si="1">B223*8/10</f>
-        <v>5.804403187430586E-2</v>
+        <v>9.0693799803602898E-2</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B224" s="2">
-        <v>863.27061294540795</v>
+        <f t="shared" si="2"/>
+        <v>2294.8228469310975</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
@@ -4756,8 +5788,7 @@
         <v>24</v>
       </c>
       <c r="H224">
-        <f t="shared" si="1"/>
-        <v>690.61649035632638</v>
+        <v>1079.08826618176</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -4765,7 +5796,8 @@
         <v>80</v>
       </c>
       <c r="B225" s="2">
-        <v>6.0126630240166401</v>
+        <f t="shared" ref="B225:B231" si="3">H225*0.0493378453990471/0.08/0.29</f>
+        <v>15.983396482516165</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -4777,16 +5809,16 @@
         <v>24</v>
       </c>
       <c r="H225">
-        <f t="shared" si="1"/>
-        <v>4.8101304192133121</v>
+        <v>7.5158287800207999</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>51</v>
       </c>
-      <c r="B226" s="6">
-        <v>1.3268167008304881E-5</v>
+      <c r="B226" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5270623522870881E-5</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -4797,9 +5829,8 @@
       <c r="F226" t="s">
         <v>24</v>
       </c>
-      <c r="H226">
-        <f t="shared" si="1"/>
-        <v>1.0614533606643904E-5</v>
+      <c r="H226" s="18">
+        <v>1.6585208760381101E-5</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -4807,7 +5838,8 @@
         <v>79</v>
       </c>
       <c r="B227" s="2">
-        <v>1.4175105006340879E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.7681526902915131E-3</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -4819,8 +5851,7 @@
         <v>24</v>
       </c>
       <c r="H227">
-        <f t="shared" si="1"/>
-        <v>1.1340084005072703E-3</v>
+        <v>1.7718881257926099E-3</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -4828,7 +5859,8 @@
         <v>33</v>
       </c>
       <c r="B228" s="2">
-        <v>6.4493368749228726</v>
+        <f t="shared" si="3"/>
+        <v>17.144201813648614</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -4840,8 +5872,7 @@
         <v>24</v>
       </c>
       <c r="H228">
-        <f t="shared" si="1"/>
-        <v>5.1594694999382984</v>
+        <v>8.0616710936535902</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -4849,7 +5880,8 @@
         <v>22</v>
       </c>
       <c r="B229" s="2">
-        <v>332.20802965097516</v>
+        <f t="shared" si="3"/>
+        <v>883.10497883846267</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -4861,8 +5893,7 @@
         <v>24</v>
       </c>
       <c r="H229">
-        <f t="shared" si="1"/>
-        <v>265.76642372078015</v>
+        <v>415.26003706371898</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -4870,7 +5901,8 @@
         <v>60</v>
       </c>
       <c r="B230" s="2">
-        <v>1.232763871404528E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.2770427425047081E-4</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -4882,16 +5914,16 @@
         <v>24</v>
       </c>
       <c r="H230">
-        <f t="shared" si="1"/>
-        <v>9.8621109712362232E-5</v>
+        <v>1.54095483925566E-4</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>57</v>
       </c>
-      <c r="B231" s="6">
-        <v>2.3378846171595437E-5</v>
+      <c r="B231" s="2">
+        <f t="shared" si="3"/>
+        <v>6.2147731574476291E-5</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -4902,9 +5934,8 @@
       <c r="F231" t="s">
         <v>24</v>
       </c>
-      <c r="H231">
-        <f t="shared" si="1"/>
-        <v>1.8703076937276351E-5</v>
+      <c r="H231" s="18">
+        <v>2.9223557714494299E-5</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -4923,10 +5954,6 @@
       <c r="F232" t="s">
         <v>24</v>
       </c>
-      <c r="H232">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
     </row>
     <row r="234" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -4941,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -4949,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -4965,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -5010,50 +6037,59 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="B242" s="2">
-        <v>41484.015836092483</v>
+        <f>0.07/H242</f>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E242" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>20</v>
+        <v>99</v>
+      </c>
+      <c r="H242" s="2">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B243" s="2">
-        <v>6.8188301333819989</v>
+        <f>H243/0.128134695575195*0.18/$H$242</f>
+        <v>1040635.2383683919</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E243" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F243" t="s">
         <v>13</v>
       </c>
       <c r="G243" t="s">
-        <v>115</v>
+        <v>20</v>
+      </c>
+      <c r="H243">
+        <v>51855.019795115601</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B244" s="2">
-        <v>-13939.972932776</v>
+        <f t="shared" ref="B244:B307" si="4">H244/0.128134695575195*0.18/$H$242</f>
+        <v>171.0517841204724</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -5065,18 +6101,22 @@
         <v>13</v>
       </c>
       <c r="G244" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="H244">
+        <v>8.5235376667274991</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B245" s="2">
-        <v>6.6844689484877684E-4</v>
+        <f t="shared" si="4"/>
+        <v>-349687.14487682772</v>
       </c>
       <c r="C245" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="E245" t="s">
         <v>3</v>
@@ -5085,95 +6125,115 @@
         <v>13</v>
       </c>
       <c r="G245" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="H245">
+        <v>-17424.96616597</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B246" s="2">
-        <v>60.126630240166399</v>
+        <f t="shared" si="4"/>
+        <v>1.6768130561563541E-2</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="E246" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F246" t="s">
         <v>13</v>
       </c>
       <c r="G246" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="H246">
+        <v>8.3555861856097102E-4</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>43</v>
-      </c>
-      <c r="B247" s="6">
-        <v>4.8705929524157117E-8</v>
+        <v>106</v>
+      </c>
+      <c r="B247" s="2">
+        <f t="shared" si="4"/>
+        <v>1508.2891309145107</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E247" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F247" t="s">
         <v>13</v>
       </c>
       <c r="G247" t="s">
-        <v>41</v>
+        <v>116</v>
+      </c>
+      <c r="H247">
+        <v>75.158287800208001</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B248" s="2">
-        <v>8834.2479067953591</v>
+        <f t="shared" si="4"/>
+        <v>1.221798458003374E-6</v>
       </c>
       <c r="C248" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E248" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F248" t="s">
         <v>13</v>
       </c>
       <c r="G248" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="H248" s="18">
+        <v>6.0882411905196394E-8</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>109</v>
-      </c>
-      <c r="B249" s="6">
-        <v>1.3436118489422639E-10</v>
+        <v>35</v>
+      </c>
+      <c r="B249" s="2">
+        <f t="shared" si="4"/>
+        <v>221608.9616930249</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E249" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F249" t="s">
         <v>13</v>
       </c>
       <c r="G249" t="s">
-        <v>119</v>
+        <v>18</v>
+      </c>
+      <c r="H249">
+        <v>11042.809883494199</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>110</v>
-      </c>
-      <c r="B250" s="6">
-        <v>1.6761557815554799E-6</v>
+        <v>107</v>
+      </c>
+      <c r="B250" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3704785048368907E-9</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -5185,18 +6245,22 @@
         <v>13</v>
       </c>
       <c r="G250" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="H250" s="18">
+        <v>1.6795148111778299E-10</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="B251" s="2">
-        <v>2317.7304394254079</v>
+        <f t="shared" si="4"/>
+        <v>4.2046719347840345E-5</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E251" t="s">
         <v>3</v>
@@ -5205,18 +6269,22 @@
         <v>13</v>
       </c>
       <c r="G251" t="s">
-        <v>29</v>
+        <v>118</v>
+      </c>
+      <c r="H251" s="18">
+        <v>2.0951947269443498E-6</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B252" s="2">
-        <v>1414.151471011736</v>
+        <f t="shared" si="4"/>
+        <v>58140.754208436425</v>
       </c>
       <c r="C252" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E252" t="s">
         <v>3</v>
@@ -5225,15 +6293,19 @@
         <v>13</v>
       </c>
       <c r="G252" t="s">
-        <v>121</v>
+        <v>29</v>
+      </c>
+      <c r="H252">
+        <v>2897.1630492817599</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B253" s="2">
-        <v>-8128.8516861007201</v>
+        <f t="shared" si="4"/>
+        <v>35474.286263408358</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -5245,15 +6317,19 @@
         <v>13</v>
       </c>
       <c r="G253" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="H253">
+        <v>1767.6893387646701</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B254" s="2">
-        <v>1.508204300437696E-2</v>
+        <f t="shared" si="4"/>
+        <v>-203913.94954263244</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
@@ -5265,55 +6341,67 @@
         <v>13</v>
       </c>
       <c r="G254" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="H254">
+        <v>-10161.0646076259</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B255" s="2">
-        <v>1.0614533606643921</v>
+        <f t="shared" si="4"/>
+        <v>0.37833621216794217</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
       </c>
       <c r="E255" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F255" t="s">
         <v>13</v>
       </c>
       <c r="G255" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="H255">
+        <v>1.8852553755471201E-2</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="B256" s="2">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="4"/>
+        <v>26.626780188211526</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="E256" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F256" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G256" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="H256">
+        <v>1.3268167008304901</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>65</v>
       </c>
-      <c r="B257" s="6">
-        <v>6.147024208910864E-7</v>
+      <c r="B257" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5419939159628791E-5</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -5324,13 +6412,17 @@
       <c r="F257" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H257" s="18">
+        <v>7.68378026113858E-7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>66</v>
       </c>
       <c r="B258" s="2">
-        <v>2.4655277428090559E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.1848280563756977E-2</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -5341,13 +6433,17 @@
       <c r="F258" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <v>3.0819096785113199E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>64</v>
       </c>
       <c r="B259" s="2">
-        <v>1.464536915347072E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.6738215702722218E-2</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -5358,13 +6454,17 @@
       <c r="F259" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H259">
+        <v>1.8306711441838401E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>82</v>
       </c>
       <c r="B260" s="2">
-        <v>0.38628840657090163</v>
+        <f t="shared" si="4"/>
+        <v>9.6901257014060782</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -5375,13 +6475,17 @@
       <c r="F260" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H260">
+        <v>0.48286050821362703</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>54</v>
       </c>
       <c r="B261" s="2">
-        <v>6.953191318276224E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.7442226262530929E-2</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -5392,13 +6496,17 @@
       <c r="F261" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H261">
+        <v>8.69148914784528E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>48</v>
       </c>
-      <c r="B262" s="6">
-        <v>1.8508253219179682E-8</v>
+      <c r="B262" s="2">
+        <f t="shared" si="4"/>
+        <v>4.642834140412815E-7</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -5409,13 +6517,17 @@
       <c r="F262" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H262" s="18">
+        <v>2.3135316523974601E-8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>72</v>
       </c>
-      <c r="B263" s="6">
-        <v>6.147024208910864E-7</v>
+      <c r="B263" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5419939159628791E-5</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -5426,13 +6538,17 @@
       <c r="F263" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H263" s="18">
+        <v>7.68378026113858E-7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>67</v>
       </c>
       <c r="B264" s="2">
-        <v>0.12361229010268879</v>
+        <f t="shared" si="4"/>
+        <v>3.1008402244499522</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -5443,13 +6559,17 @@
       <c r="F264" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <v>0.15451536262836099</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>69</v>
       </c>
       <c r="B265" s="2">
-        <v>1.0816075383985201E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.27132351963936907</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -5460,13 +6580,17 @@
       <c r="F265" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H265">
+        <v>1.3520094229981501E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>63</v>
       </c>
-      <c r="B266" s="6">
-        <v>1.3570479674316881E-6</v>
+      <c r="B266" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4041832898852631E-5</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
@@ -5477,13 +6601,17 @@
       <c r="F266" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H266" s="18">
+        <v>1.6963099592896101E-6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>25</v>
       </c>
       <c r="B267" s="2">
-        <v>271.12743499805839</v>
+        <f t="shared" si="4"/>
+        <v>6801.2885749103343</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -5494,13 +6622,17 @@
       <c r="F267" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H267">
+        <v>338.90929374757297</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>72</v>
       </c>
-      <c r="B268" s="6">
-        <v>7.7593584276415841E-6</v>
+      <c r="B268" s="2">
+        <f t="shared" si="4"/>
+        <v>1.9464513365433068E-4</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -5511,13 +6643,17 @@
       <c r="F268" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H268" s="18">
+        <v>9.6991980345519797E-6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B269" s="2">
-        <v>7.4570457616295761E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.18706155701844771</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -5528,30 +6664,38 @@
       <c r="F269" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H269">
+        <v>9.3213072020369696E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B270" s="2">
-        <v>5.340857099545504</v>
+        <f t="shared" si="4"/>
+        <v>133.9765205672665</v>
       </c>
       <c r="C270" t="s">
+        <v>133</v>
+      </c>
+      <c r="D270" t="s">
         <v>135</v>
       </c>
-      <c r="D270" t="s">
-        <v>137</v>
-      </c>
       <c r="F270" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H270">
+        <v>6.6760713744318796</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>25</v>
       </c>
       <c r="B271" s="2">
-        <v>47.846017940833761</v>
+        <f t="shared" si="4"/>
+        <v>1200.2273955724102</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -5562,13 +6706,17 @@
       <c r="F271" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H271">
+        <v>59.807522426042198</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B272" s="2">
-        <v>3.0130495712530321</v>
+        <f t="shared" si="4"/>
+        <v>75.582980470967385</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -5579,13 +6727,17 @@
       <c r="F272" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H272">
+        <v>3.7663119640662899</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B273" s="2">
-        <v>9.3381023501487206E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3424825608616353</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -5596,13 +6748,17 @@
       <c r="F273" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H273">
+        <v>0.116726279376859</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>74</v>
       </c>
       <c r="B274" s="2">
-        <v>6.8524204296055522E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.7189440374668158E-2</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -5613,13 +6769,17 @@
       <c r="F274" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H274">
+        <v>8.5655255370069403E-4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>56</v>
       </c>
-      <c r="B275" s="6">
-        <v>3.2045142597273042E-5</v>
+      <c r="B275" s="2">
+        <f t="shared" si="4"/>
+        <v>8.0385912340359949E-4</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -5630,13 +6790,17 @@
       <c r="F275" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H275" s="18">
+        <v>4.0056428246591303E-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>47</v>
       </c>
       <c r="B276" s="2">
-        <v>8.7670673143483202E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1992372244060832</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -5647,13 +6811,17 @@
       <c r="F276" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H276">
+        <v>0.109588341429354</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>52</v>
       </c>
       <c r="B277" s="2">
-        <v>7.2555039842882321E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8200583926119223</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
@@ -5664,13 +6832,17 @@
       <c r="F277" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H277">
+        <v>9.0693799803602898E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>71</v>
       </c>
       <c r="B278" s="2">
-        <v>0.60798436164637526</v>
+        <f t="shared" si="4"/>
+        <v>15.251415234386949</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
@@ -5681,13 +6853,17 @@
       <c r="F278" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H278">
+        <v>0.75998045205796905</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
       <c r="B279" s="2">
-        <v>4.1987870279445761E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.0532745327615285E-2</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -5698,13 +6874,17 @@
       <c r="F279" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H279">
+        <v>5.2484837849307202E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>50</v>
       </c>
       <c r="B280" s="2">
-        <v>39.972452506032404</v>
+        <f t="shared" si="4"/>
+        <v>1002.7173551889763</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
@@ -5715,30 +6895,38 @@
       <c r="F280" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H280">
+        <v>49.965565632540503</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B281" s="2">
-        <v>7.5242263540766879E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8874679627086612</v>
       </c>
       <c r="C281" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D281" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F281" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H281">
+        <v>9.4052829425958606E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>84</v>
       </c>
       <c r="B282" s="2">
-        <v>1.172301338202128E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.29407424954701933</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -5749,13 +6937,17 @@
       <c r="F282" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H282">
+        <v>1.46537667275266E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>91</v>
       </c>
       <c r="B283" s="2">
-        <v>0.11689423085797682</v>
+        <f t="shared" si="4"/>
+        <v>2.9323162992080913</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -5766,13 +6958,17 @@
       <c r="F283" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H283">
+        <v>0.14611778857247101</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>53</v>
       </c>
       <c r="B284" s="2">
-        <v>1.232763871404528E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.0924140281878489E-2</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -5783,13 +6979,17 @@
       <c r="F284" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H284">
+        <v>1.54095483925566E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>55</v>
       </c>
       <c r="B285" s="2">
-        <v>4.2323773241681355</v>
+        <f t="shared" si="4"/>
+        <v>106.17007290236216</v>
       </c>
       <c r="C285" t="s">
         <v>26</v>
@@ -5800,13 +7000,17 @@
       <c r="F285" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H285">
+        <v>5.2904716552101698</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>59</v>
       </c>
       <c r="B286" s="2">
-        <v>0.18944927070085921</v>
+        <f t="shared" si="4"/>
+        <v>4.7523746918200152</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -5817,13 +7021,17 @@
       <c r="F286" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H286">
+        <v>0.23681158837607399</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>62</v>
       </c>
       <c r="B287" s="2">
-        <v>9909.1373859491996</v>
+        <f t="shared" si="4"/>
+        <v>248572.78973172072</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -5834,13 +7042,17 @@
       <c r="F287" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H287">
+        <v>12386.4217324365</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>87</v>
       </c>
       <c r="B288" s="2">
-        <v>1.172301338202128E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.29407424954701933</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -5851,13 +7063,17 @@
       <c r="F288" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H288">
+        <v>1.46537667275266E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>58</v>
       </c>
       <c r="B289" s="2">
-        <v>314.74107561472402</v>
+        <f t="shared" si="4"/>
+        <v>7895.3458975803833</v>
       </c>
       <c r="C289" t="s">
         <v>26</v>
@@ -5868,13 +7084,17 @@
       <c r="F289" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H289">
+        <v>393.42634451840502</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>76</v>
       </c>
       <c r="B290" s="2">
-        <v>5.8447115428988561E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4661581496040492</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
@@ -5885,13 +7105,17 @@
       <c r="F290" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H290">
+        <v>7.3058894286235701E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>51</v>
       </c>
       <c r="B291" s="2">
-        <v>5.5759891731104003E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.3987485795073109</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -5902,13 +7126,17 @@
       <c r="F291" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H291">
+        <v>6.9699864663880007E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>68</v>
       </c>
       <c r="B292" s="2">
-        <v>1.2092506640480399E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.30334306543532075</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
@@ -5919,13 +7147,17 @@
       <c r="F292" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H292">
+        <v>1.5115633300600499E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B293" s="2">
-        <v>1195.8145455586159</v>
+        <f t="shared" si="4"/>
+        <v>29997.258693048352</v>
       </c>
       <c r="C293" t="s">
         <v>7</v>
@@ -5936,13 +7168,17 @@
       <c r="F293" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H293">
+        <v>1494.76818194827</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>61</v>
       </c>
       <c r="B294" s="2">
-        <v>0.18575433811626801</v>
+        <f t="shared" si="4"/>
+        <v>4.6596865329370019</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
@@ -5953,13 +7189,17 @@
       <c r="F294" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H294">
+        <v>0.232192922645335</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>89</v>
       </c>
       <c r="B295" s="2">
-        <v>11.655832789574159</v>
+        <f t="shared" si="4"/>
+        <v>292.38901029460078</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
@@ -5970,13 +7210,17 @@
       <c r="F295" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H295">
+        <v>14.5697909869677</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>83</v>
       </c>
       <c r="B296" s="2">
-        <v>5.1393153222041685E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.2892080281001127E-2</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
@@ -5987,13 +7231,17 @@
       <c r="F296" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H296">
+        <v>6.4241441527552101E-4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>77</v>
       </c>
       <c r="B297" s="2">
-        <v>6.9867816144997767E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.1752648822515184</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
@@ -6004,13 +7252,17 @@
       <c r="F297" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H297">
+        <v>8.7334770181247204E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>83</v>
       </c>
       <c r="B298" s="2">
-        <v>5.7775309504517439E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4493057570798653</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
@@ -6021,30 +7273,38 @@
       <c r="F298" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H298">
+        <v>7.2219136880646795E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B299" s="2">
-        <v>7.5242263540766879E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8874679627086612</v>
       </c>
       <c r="C299" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D299" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F299" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H299">
+        <v>9.4052829425958606E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>49</v>
       </c>
       <c r="B300" s="2">
-        <v>3.2481816448179284E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.1481317854431953E-2</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
@@ -6055,13 +7315,17 @@
       <c r="F300" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H300">
+        <v>4.0602270560224103E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>90</v>
       </c>
       <c r="B301" s="2">
-        <v>7.4570457616295757E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8706155701844773</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
@@ -6072,13 +7336,17 @@
       <c r="F301" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H301">
+        <v>9.32130720203697E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>78</v>
       </c>
       <c r="B302" s="2">
-        <v>0.36949325845912318</v>
+        <f t="shared" si="4"/>
+        <v>9.2688158883014644</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -6089,13 +7357,17 @@
       <c r="F302" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H302">
+        <v>0.461866573073904</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>32</v>
       </c>
       <c r="B303" s="2">
-        <v>1.1823784270691921E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.29660210842564627</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -6106,13 +7378,17 @@
       <c r="F303" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H303">
+        <v>1.47797303383649E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>70</v>
       </c>
       <c r="B304" s="2">
-        <v>1.02450403481848E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.5699898599381384E-3</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
@@ -6123,13 +7399,17 @@
       <c r="F304" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H304">
+        <v>1.2806300435231E-4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B305" s="2">
-        <v>0.27241730237304396</v>
+        <f t="shared" si="4"/>
+        <v>6.833645168556794</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -6140,13 +7420,17 @@
       <c r="F305" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H305">
+        <v>0.34052162796630497</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>88</v>
       </c>
       <c r="B306" s="2">
-        <v>4.9377735448628236E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.12386508505275581</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -6157,13 +7441,17 @@
       <c r="F306" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H306">
+        <v>6.1722169310785297E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>81</v>
       </c>
       <c r="B307" s="2">
-        <v>7.2555039842882321E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8200583926119223</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -6174,13 +7462,17 @@
       <c r="F307" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H307">
+        <v>9.0693799803602898E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B308" s="2">
-        <v>863.27061294540795</v>
+        <f t="shared" ref="B308:B315" si="5">H308/0.128134695575195*0.18/$H$242</f>
+        <v>21655.324393577106</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -6191,13 +7483,17 @@
       <c r="F308" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H308">
+        <v>1079.08826618176</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>80</v>
       </c>
       <c r="B309" s="2">
-        <v>6.0126630240166401</v>
+        <f t="shared" si="5"/>
+        <v>150.82891309145106</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -6208,13 +7504,17 @@
       <c r="F309" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H309">
+        <v>7.5158287800207999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>51</v>
       </c>
-      <c r="B310" s="6">
-        <v>1.3268167008304881E-5</v>
+      <c r="B310" s="2">
+        <f t="shared" si="5"/>
+        <v>3.3283475235264351E-4</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -6225,13 +7525,17 @@
       <c r="F310" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H310" s="18">
+        <v>1.6585208760381101E-5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>79</v>
       </c>
       <c r="B311" s="2">
-        <v>1.4175105006340879E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.5558548226029184E-2</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -6242,13 +7546,17 @@
       <c r="F311" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H311">
+        <v>1.7718881257926099E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>33</v>
       </c>
       <c r="B312" s="2">
-        <v>6.4493368749228726</v>
+        <f t="shared" si="5"/>
+        <v>161.78296823217087</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -6259,13 +7567,17 @@
       <c r="F312" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H312">
+        <v>8.0616710936535902</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>22</v>
       </c>
       <c r="B313" s="2">
-        <v>332.20802965097516</v>
+        <f t="shared" si="5"/>
+        <v>8333.5081032092221</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -6276,13 +7588,17 @@
       <c r="F313" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H313">
+        <v>415.26003706371898</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>60</v>
       </c>
       <c r="B314" s="2">
-        <v>1.232763871404528E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.0924140281878487E-3</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -6293,13 +7609,17 @@
       <c r="F314" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H314">
+        <v>1.54095483925566E-4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>57</v>
       </c>
-      <c r="B315" s="6">
-        <v>2.3378846171595437E-5</v>
+      <c r="B315" s="2">
+        <f t="shared" si="5"/>
+        <v>5.8646325984162008E-4</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -6310,8 +7630,11 @@
       <c r="F315" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H315" s="18">
+        <v>2.9223557714494299E-5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>97</v>
       </c>
@@ -6329,8 +7652,962 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H16"/>
+  <autoFilter ref="A1:H17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBE61D7-2455-406B-8003-3714D0481253}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="8">
+        <f>107000</f>
+        <v>107000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3.0303030000000002E-2</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>3242.4242100000001</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E10" si="0">D3/SUM($D$3:$D$10)</f>
+        <v>8.4888477418393851E-2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="8">
+        <f>10300</f>
+        <v>10300</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.12121212119999999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="1">B4*C4</f>
+        <v>1248.4848483599999</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>3.2686030880954564E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5">
+        <v>20600</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>20600</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.53931950958968233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6">
+        <v>5640</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3406.56</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>8.9185644106205247E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7">
+        <v>23800</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3736.6</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>9.7826275705476071E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8">
+        <v>25128</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1095.5808</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>2.868291746465397E-2</v>
+      </c>
+      <c r="H8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C9" s="8">
+        <v>220</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>785.62</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>2.0567970539992535E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9">
+        <v>160000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>12.074</v>
+      </c>
+      <c r="C10" s="8">
+        <v>338</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4081.0120000000002</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1068431742946412</v>
+      </c>
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10">
+        <v>15400</v>
+      </c>
+      <c r="I10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="C14">
+        <v>3200</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v>11427.2</v>
+      </c>
+      <c r="E14" s="12">
+        <f>D14/SUM($D$14:$D$20)</f>
+        <v>0.19158029070912327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>12.074</v>
+      </c>
+      <c r="C15">
+        <v>2310</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D20" si="2">B15*C15</f>
+        <v>27890.94</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" ref="E15:E20" si="3">D15/SUM($D$14:$D$20)</f>
+        <v>0.46759962137275224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16">
+        <v>20600</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>5150</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="3"/>
+        <v>8.6341229448332474E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17">
+        <v>23800</v>
+      </c>
+      <c r="C17">
+        <v>0.02</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="3"/>
+        <v>7.980276741243934E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18">
+        <v>5640</v>
+      </c>
+      <c r="C18">
+        <v>0.73</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>4117.2</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="3"/>
+        <v>6.9026040754305712E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="8">
+        <f>107000</f>
+        <v>107000</v>
+      </c>
+      <c r="C19" s="8">
+        <f>0.1/1.4</f>
+        <v>7.1428571428571438E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>7642.857142857144</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="3"/>
+        <v>0.12813469557519522</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="8">
+        <f>10300</f>
+        <v>10300</v>
+      </c>
+      <c r="C20" s="8">
+        <f>0.4/1.4</f>
+        <v>0.28571428571428575</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>2942.8571428571431</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="3"/>
+        <v>4.9337845399047134E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679DA291-A0B6-44A7-9DFB-D0BB09525C42}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2">
+        <v>74.230769230769198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="8">
+        <f>B2-B1</f>
+        <v>74.230769230769198</v>
+      </c>
+      <c r="F2" s="8">
+        <f>B8-B7</f>
+        <v>38.846153846153797</v>
+      </c>
+      <c r="G2" s="8">
+        <f>B14-B13</f>
+        <v>84.230769230769198</v>
+      </c>
+      <c r="H2" s="8">
+        <f>B20-B19</f>
+        <v>93.846153846153797</v>
+      </c>
+      <c r="I2" s="8">
+        <f>B25-B24</f>
+        <v>85.384615384615401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3">
+        <v>84.423076923076906</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E6" si="0">B3-B2</f>
+        <v>10.192307692307708</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F6" si="1">B9-B8</f>
+        <v>39.615384615384599</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G6" si="2">B15-B14</f>
+        <v>7.115384615384599</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H5" si="3">B21-B20</f>
+        <v>2.3076923076923066</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I6" si="4">B26-B25</f>
+        <v>2.6923076923075939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
+        <v>89.038461538461505</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>4.615384615384599</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>13.076923076923109</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="3"/>
+        <v>0.96153846153849543</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="4"/>
+        <v>3.0769230769231086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5">
+        <v>96.346153846153797</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>7.3076923076922924</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>5.5769230769230944</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="2"/>
+        <v>5.384615384615401</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="3"/>
+        <v>2.4038461538461036</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>3.653846153846203</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>2.884615384615401</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.76923076923080203</v>
+      </c>
+      <c r="H6" s="8">
+        <f>B30-B23</f>
+        <v>0.48076923076929745</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="4"/>
+        <v>1.3461538461538964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SUM(E2:E6)</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:I7" si="5">SUM(F2:F6)</f>
+        <v>100</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8">
+        <v>38.846153846153797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9">
+        <v>78.461538461538396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10">
+        <v>91.538461538461505</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11">
+        <v>97.115384615384599</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="15">
+        <f>E2/SUM(E$2:E$5)</f>
+        <v>0.77045908183632739</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" ref="F11:I11" si="6">F2/SUM(F$2:F$5)</f>
+        <v>0.39999999999999958</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="6"/>
+        <v>0.84883720930232553</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="6"/>
+        <v>0.94299516908212577</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="6"/>
+        <v>0.86549707602339243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" ref="E12:I13" si="7">E3/SUM(E$2:E$5)</f>
+        <v>0.10578842315369283</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="7"/>
+        <v>0.40792079207920784</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="7"/>
+        <v>7.1705426356589011E-2</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="7"/>
+        <v>2.3188405797101453E-2</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="7"/>
+        <v>2.7290448343078939E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="7"/>
+        <v>4.7904191616766324E-2</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="7"/>
+        <v>0.134653465346535</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="7"/>
+        <v>2.5193798449612413E-2</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="7"/>
+        <v>9.661835748792617E-3</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="7"/>
+        <v>3.1189083820663106E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14">
+        <v>84.230769230769198</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="15">
+        <f>E13/2</f>
+        <v>2.3952095808383162E-2</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14:I14" si="8">F13/2</f>
+        <v>6.7326732673267498E-2</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="8"/>
+        <v>1.2596899224806207E-2</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="8"/>
+        <v>4.8309178743963085E-3</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="8"/>
+        <v>1.5594541910331553E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15">
+        <v>91.346153846153797</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="15">
+        <f>E13/2</f>
+        <v>2.3952095808383162E-2</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" ref="F15:I15" si="9">F13/2</f>
+        <v>6.7326732673267498E-2</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2596899224806207E-2</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="9"/>
+        <v>4.8309178743963085E-3</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="9"/>
+        <v>1.5594541910331553E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16">
+        <v>93.846153846153797</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="15">
+        <f>E5/SUM(E$2:E$5)</f>
+        <v>7.5848303393213454E-2</v>
+      </c>
+      <c r="F16" s="15">
+        <f>F5/SUM(F$2:F$5)</f>
+        <v>5.7425742574257616E-2</v>
+      </c>
+      <c r="G16" s="15">
+        <f>G5/SUM(G$2:G$5)</f>
+        <v>5.4263565891473055E-2</v>
+      </c>
+      <c r="H16" s="15">
+        <f>H5/SUM(H$2:H$5)</f>
+        <v>2.4154589371980187E-2</v>
+      </c>
+      <c r="I16" s="15">
+        <f>I5/SUM(I$2:I$5)</f>
+        <v>7.6023391812865534E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17">
+        <v>99.230769230769198</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20">
+        <v>93.846153846153797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21">
+        <v>96.153846153846104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22">
+        <v>97.115384615384599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23">
+        <v>99.519230769230703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>85.384615384615401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>88.076923076922995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27">
+        <v>91.153846153846104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>98.653846153846104</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D28" r:id="rId1" xr:uid="{AFB5DA0C-6ED1-42F2-8E07-71F8318E0FC0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-PGM.xlsx
+++ b/premise/data/additional_inventories/lci-PGM.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFF6016-9B56-4C56-A5B5-BD87D9D18117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="30240" windowHeight="16320"/>
   </bookViews>
   <sheets>
-    <sheet name="PGM" sheetId="1" r:id="rId1"/>
-    <sheet name="Allocation" sheetId="2" r:id="rId2"/>
-    <sheet name="Shares" sheetId="3" r:id="rId3"/>
+    <sheet name="graphite" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PGM!$A$1:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">graphite!$A$1:$H$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="141">
   <si>
     <t>Activity</t>
   </si>
@@ -337,12 +333,18 @@
     <t>Ruthenium, in ground</t>
   </si>
   <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (7%) and divided by former allocation value of platinunm (61%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
     <t>PGM</t>
   </si>
   <si>
     <t>iridium</t>
   </si>
   <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (13%) and divided by former allocation value of platinum (61%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
     <t>Iridium, in ground</t>
   </si>
   <si>
@@ -451,179 +453,20 @@
     <t>natural resource::land</t>
   </si>
   <si>
-    <t>Price [$ per kg]</t>
-  </si>
-  <si>
-    <t>Mine [kg/kg platinum]</t>
-  </si>
-  <si>
-    <t>Iridium</t>
-  </si>
-  <si>
-    <t>The life cycle impact for platinum group metals and lithium to 2070 via surplus cost potential. Jasinski</t>
-  </si>
-  <si>
-    <t>Ruthenium</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Palladium</t>
-  </si>
-  <si>
-    <t>Rhodium</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>We take the same values for iridium and ruthenium, but scale them to palladium</t>
-  </si>
-  <si>
-    <t>Bar0</t>
-  </si>
-  <si>
-    <t>Bar1</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Bar2</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Bar3</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>Bar4</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Bar5</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Bar6</t>
-  </si>
-  <si>
-    <t>Bar7</t>
-  </si>
-  <si>
-    <t>Bar8</t>
-  </si>
-  <si>
-    <t>Bar9</t>
-  </si>
-  <si>
-    <t>Bar10</t>
-  </si>
-  <si>
-    <t>Bar11</t>
-  </si>
-  <si>
-    <t>Bar12</t>
-  </si>
-  <si>
-    <t>Bar13</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Bar14</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Bar15</t>
-  </si>
-  <si>
-    <t>Bar16</t>
-  </si>
-  <si>
-    <t>Bar17</t>
-  </si>
-  <si>
-    <t>Bar18</t>
-  </si>
-  <si>
-    <t>Bar19</t>
-  </si>
-  <si>
-    <t>Bar20</t>
-  </si>
-  <si>
-    <t>Bar21</t>
-  </si>
-  <si>
-    <t>Bar22</t>
-  </si>
-  <si>
-    <t>Bar23</t>
-  </si>
-  <si>
-    <t>Bar24</t>
-  </si>
-  <si>
-    <t>Bar25</t>
-  </si>
-  <si>
-    <t>Bar26</t>
-  </si>
-  <si>
-    <t>Bar27</t>
-  </si>
-  <si>
-    <t>Bar28</t>
-  </si>
-  <si>
-    <t>Bar29</t>
-  </si>
-  <si>
-    <t>https://matthey.com/documents/161599/509428/PGM-market-report-May-2022.pdf/542bcada-f4ac-a673-5f95-ad1bbfca5106?t=1655877358676</t>
-  </si>
-  <si>
-    <t>JM - PGM market report May 2022</t>
-  </si>
-  <si>
-    <t>Prices from Umicore 2023, converted to EUR2005</t>
-  </si>
-  <si>
-    <t>€160,000 in 2023 is worth €106,995.29 in 2005</t>
-  </si>
-  <si>
-    <t>€15,400 in 2023 is worth €10,298.30 in 2005</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (3%) and divided by former allocation value of platinunm (61%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (8%) and divided by former allocation value of platinum (61%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (5%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
-  </si>
-  <si>
-    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (13%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of ruthenium (10%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>Multiplied original values in Ecoinvent by allocation percentage of iridium (18%) and divided by former allocation value of platinum (8%). Allocation method can be found in the supplementary excel file.</t>
+  </si>
+  <si>
+    <t>CHECK WITH ROMAIN THIS NUMBER (IT WAS 1 BEFORE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,57 +497,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -712,30 +514,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -743,25 +528,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Per cent 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,192 +545,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19531</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0CA01D-ACCE-41B2-94D2-28D0570522E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11049000" y="0"/>
-          <a:ext cx="7954485" cy="3448531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>315418</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>48120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7737416A-058C-4E5E-B958-347B26E6EAEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10858500" y="3552825"/>
-          <a:ext cx="7830643" cy="3543795"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>78642</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66738</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B5B200-53A2-426F-9725-AC97A58BFD90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7343775" y="0"/>
-          <a:ext cx="10765692" cy="3686238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>292</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>181068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D02D69-11E3-6E38-2D03-D9A08E33AE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7400925" y="3514725"/>
-          <a:ext cx="2095792" cy="666843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="G325" sqref="G325"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +829,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1330,40 +915,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2">
-        <f>0.12/0.12</f>
-        <v>1</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>2882.5523032849478</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <f>H12*0.0326860308809546/0.61/$H$11</f>
-        <v>11216.570666802214</v>
+        <v>204.79447020905278</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -1372,67 +952,55 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>25119.384357197399</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B73" si="0">H13*0.0326860308809546/0.61/$H$11</f>
-        <v>796.89504494069467</v>
+        <v>328.23223307478298</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13">
-        <v>1784.6375261074597</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1277.2153460008383</v>
+        <v>8556.4812895563027</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14">
-        <v>2860.3094596516798</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>33294.929959850895</v>
+        <v>792.52654567201785</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1444,46 +1012,38 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>74563.62266613348</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>3083.8746602156966</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5.2932145311205091E-13</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <v>6906.3027551418691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>2.0596925431395546E-12</v>
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3611.957265673354</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
@@ -1492,67 +1052,58 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17">
-        <v>4.6126583771193003E-12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>14054.826991248519</v>
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-750.44549014961035</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18">
-        <v>31475.627600867792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>-2920.129103036104</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.12</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19">
-        <v>-6539.5964141608893</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>2.9985308997504088E-3</v>
+      <c r="B20" s="2">
+        <v>7.7059400848145522E-4</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1563,18 +1114,13 @@
       <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="H20">
-        <v>6.7151763596241089E-3</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>1.7057888714668461E-12</v>
+      <c r="B21" s="6">
+        <v>4.3837156528755754E-13</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1585,18 +1131,13 @@
       <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="H21">
-        <v>3.8200950689344294E-12</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>4.5718925390516038E-3</v>
+      <c r="B22" s="2">
+        <v>1.1749330308076819E-3</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1607,18 +1148,13 @@
       <c r="F22" t="s">
         <v>24</v>
       </c>
-      <c r="H22">
-        <v>1.0238702125609797E-2</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.3684147323782088</v>
+      <c r="B23" s="2">
+        <v>0.35166961060036944</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1629,18 +1165,13 @@
       <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="H23">
-        <v>3.0645494638032189</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>6.5267707281633448E-6</v>
+      <c r="B24" s="6">
+        <v>1.6773181888082134E-6</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -1651,18 +1182,13 @@
       <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="H24">
-        <v>1.4616629931043001E-5</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2.4026083550050615E-3</v>
+      <c r="B25" s="2">
+        <v>6.174475651554883E-4</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1673,18 +1199,13 @@
       <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="H25">
-        <v>5.3806144963549681E-3</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>2.5066583231352018E-5</v>
+      <c r="B26" s="6">
+        <v>6.4418742033938735E-6</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1695,18 +1216,13 @@
       <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="H26">
-        <v>5.6136332343860893E-5</v>
-      </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0.18697463970052505</v>
+      <c r="B27" s="2">
+        <v>4.8050709466824729E-2</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1717,18 +1233,13 @@
       <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="H27">
-        <v>0.41872761106804401</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>4.5403622456788393E-4</v>
+      <c r="B28" s="2">
+        <v>1.1668300443883199E-4</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1739,18 +1250,13 @@
       <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="H28">
-        <v>1.0168090386812501E-3</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>68.02030189307618</v>
+      <c r="B29" s="2">
+        <v>17.48057260249254</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
@@ -1761,18 +1267,13 @@
       <c r="F29" t="s">
         <v>24</v>
       </c>
-      <c r="H29">
-        <v>152.33070410743497</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>7.0627857155004503E-6</v>
+      <c r="B30" s="6">
+        <v>1.815068957937395E-6</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1783,18 +1284,13 @@
       <c r="F30" t="s">
         <v>24</v>
       </c>
-      <c r="H30">
-        <v>1.5817029490597299E-5</v>
-      </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>3.1845596306497525E-4</v>
+      <c r="B31" s="2">
+        <v>8.1840162835569968E-5</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1805,18 +1301,13 @@
       <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="H31">
-        <v>7.1317856185282389E-4</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>13.211192923190563</v>
+      <c r="B32" s="2">
+        <v>3.3951513097132495</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -1827,18 +1318,13 @@
       <c r="F32" t="s">
         <v>24</v>
       </c>
-      <c r="H32">
-        <v>29.586318556072602</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>1.8350630742952035E-7</v>
+      <c r="B33" s="6">
+        <v>4.7159380960694758E-8</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1849,18 +1335,13 @@
       <c r="F33" t="s">
         <v>24</v>
       </c>
-      <c r="H33">
-        <v>4.1096031980033995E-7</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>1.8350630742952035E-4</v>
+      <c r="B34" s="2">
+        <v>4.7159380960694753E-5</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1871,18 +1352,13 @@
       <c r="F34" t="s">
         <v>24</v>
       </c>
-      <c r="H34">
-        <v>4.1096031980033995E-4</v>
-      </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>28.345733742120053</v>
+      <c r="B35" s="2">
+        <v>7.2845847910076564</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -1893,18 +1369,13 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="H35">
-        <v>63.479953178781003</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>3.0678975451705026E-5</v>
+      <c r="B36" s="6">
+        <v>7.8842057860405461E-6</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1915,18 +1386,13 @@
       <c r="F36" t="s">
         <v>24</v>
       </c>
-      <c r="H36">
-        <v>6.8705221849781899E-5</v>
-      </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>7.0627857155004498E-7</v>
+      <c r="B37" s="6">
+        <v>1.8150689579373952E-7</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1937,18 +1403,13 @@
       <c r="F37" t="s">
         <v>24</v>
       </c>
-      <c r="H37">
-        <v>1.5817029490597298E-6</v>
-      </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>6.1484072076901115E-3</v>
+      <c r="B38" s="2">
+        <v>1.5800823517758541E-3</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1959,18 +1420,13 @@
       <c r="F38" t="s">
         <v>24</v>
       </c>
-      <c r="H38">
-        <v>1.3769289065475299E-2</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>0.12990480869581156</v>
+      <c r="B39" s="2">
+        <v>3.3384304047777015E-2</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1981,18 +1437,13 @@
       <c r="F39" t="s">
         <v>24</v>
       </c>
-      <c r="H39">
-        <v>0.29092036384491399</v>
-      </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>7.7564521697013853E-9</v>
+      <c r="B40" s="6">
+        <v>1.9933346591633886E-9</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -2003,18 +1454,13 @@
       <c r="F40" t="s">
         <v>24</v>
       </c>
-      <c r="H40">
-        <v>1.73704877441381E-8</v>
-      </c>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>5.0133166462704125E-2</v>
+      <c r="B41" s="2">
+        <v>1.2883748406787771E-2</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -2025,18 +1471,13 @@
       <c r="F41" t="s">
         <v>24</v>
       </c>
-      <c r="H41">
-        <v>0.11227266468772198</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>3.5313928577502202E-9</v>
+      <c r="B42" s="6">
+        <v>9.0753447896869641E-10</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2047,18 +1488,13 @@
       <c r="F42" t="s">
         <v>24</v>
       </c>
-      <c r="H42">
-        <v>7.9085147452986395E-9</v>
-      </c>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>1.4157101724373665E-5</v>
+      <c r="B43" s="6">
+        <v>3.6382409022941526E-6</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -2069,18 +1505,13 @@
       <c r="F43" t="s">
         <v>24</v>
       </c>
-      <c r="H43">
-        <v>3.1704670719991896E-5</v>
-      </c>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>4.0674078450873086E-3</v>
+      <c r="B44" s="2">
+        <v>1.0452852480978738E-3</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -2091,18 +1522,13 @@
       <c r="F44" t="s">
         <v>24</v>
       </c>
-      <c r="H44">
-        <v>9.1089143048528991E-3</v>
-      </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>1.1161723853960526E-6</v>
+      <c r="B45" s="6">
+        <v>2.8684571924546315E-7</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2113,18 +1539,13 @@
       <c r="F45" t="s">
         <v>24</v>
       </c>
-      <c r="H45">
-        <v>2.4996555534247502E-6</v>
-      </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>1.1004072387096653E-6</v>
+      <c r="B46" s="6">
+        <v>2.8279422603578083E-7</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -2135,18 +1556,13 @@
       <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="H46">
-        <v>2.46434968402609E-6</v>
-      </c>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>1.708941900804123E-3</v>
+      <c r="B47" s="2">
+        <v>4.3918186392949378E-4</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -2157,18 +1573,13 @@
       <c r="F47" t="s">
         <v>24</v>
       </c>
-      <c r="H47">
-        <v>3.8271562428141594E-3</v>
-      </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>3.4683322710046803E-3</v>
+      <c r="B48" s="2">
+        <v>8.9132850612996957E-4</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -2179,18 +1590,13 @@
       <c r="F48" t="s">
         <v>24</v>
       </c>
-      <c r="H48">
-        <v>7.7672912677040195E-3</v>
-      </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>1.5575964926148297E-5</v>
+      <c r="B49" s="6">
+        <v>4.0028752911655014E-6</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -2201,18 +1607,13 @@
       <c r="F49" t="s">
         <v>24</v>
       </c>
-      <c r="H49">
-        <v>3.4882198965870793E-5</v>
-      </c>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>1106.7132973842222</v>
+      <c r="B50" s="2">
+        <v>284.41482331965437</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -2223,18 +1624,13 @@
       <c r="F50" t="s">
         <v>24</v>
       </c>
-      <c r="H50">
-        <v>2478.472031785559</v>
-      </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>3.5944534444957613E-2</v>
+      <c r="B51" s="2">
+        <v>9.237404518074234E-3</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -2245,18 +1641,13 @@
       <c r="F51" t="s">
         <v>24</v>
       </c>
-      <c r="H51">
-        <v>8.0497382228932601E-2</v>
-      </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>1.4188632017746429E-6</v>
+      <c r="B52" s="6">
+        <v>3.6463438887135146E-7</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -2267,18 +1658,13 @@
       <c r="F52" t="s">
         <v>24</v>
       </c>
-      <c r="H52">
-        <v>3.1775282458789194E-6</v>
-      </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>0.27273703767445884</v>
+      <c r="B53" s="2">
+        <v>7.0090832527493027E-2</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2289,18 +1675,13 @@
       <c r="F53" t="s">
         <v>24</v>
       </c>
-      <c r="H53">
-        <v>0.61079154059672491</v>
-      </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>1.0941011800351119E-5</v>
+      <c r="B54" s="6">
+        <v>2.811736287519084E-6</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -2311,18 +1692,13 @@
       <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="H54">
-        <v>2.4502273362666298E-5</v>
-      </c>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>4.3827107788150042E-2</v>
+      <c r="B55" s="2">
+        <v>1.126315112291507E-2</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2333,18 +1709,13 @@
       <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="H55">
-        <v>9.8150316928259873E-2</v>
-      </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>12.003582687013454</v>
+      <c r="B56" s="2">
+        <v>3.0848069298516263</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
@@ -2355,18 +1726,13 @@
       <c r="F56" t="s">
         <v>24</v>
       </c>
-      <c r="H56">
-        <v>26.881888960135598</v>
-      </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>3.4052716842591409E-5</v>
+      <c r="B57" s="6">
+        <v>8.7512253329124274E-6</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2377,18 +1743,13 @@
       <c r="F57" t="s">
         <v>24</v>
       </c>
-      <c r="H57">
-        <v>7.6260677901094002E-5</v>
-      </c>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>1.4094041137628089E-2</v>
+      <c r="B58" s="2">
+        <v>3.6220349294554164E-3</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2399,18 +1760,13 @@
       <c r="F58" t="s">
         <v>24</v>
       </c>
-      <c r="H58">
-        <v>3.1563447242397194E-2</v>
-      </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>3.1341111612533196E-2</v>
+      <c r="B59" s="2">
+        <v>8.0543685008471772E-3</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2421,18 +1777,13 @@
       <c r="F59" t="s">
         <v>24</v>
       </c>
-      <c r="H59">
-        <v>7.0188068364525388E-2</v>
-      </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>3.5313928577502202E-9</v>
+      <c r="B60" s="6">
+        <v>9.0753447896869641E-10</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2443,18 +1794,13 @@
       <c r="F60" t="s">
         <v>24</v>
       </c>
-      <c r="H60">
-        <v>7.9085147452986395E-9</v>
-      </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>81</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>2.4026083550050615E-3</v>
+      <c r="B61" s="2">
+        <v>6.174475651554883E-4</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -2465,18 +1811,13 @@
       <c r="F61" t="s">
         <v>24</v>
       </c>
-      <c r="H61">
-        <v>5.3806144963549681E-3</v>
-      </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>82</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>1.3211192923190561E-2</v>
+      <c r="B62" s="2">
+        <v>3.3951513097132493E-3</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2487,18 +1828,13 @@
       <c r="F62" t="s">
         <v>24</v>
       </c>
-      <c r="H62">
-        <v>2.9586318556072598E-2</v>
-      </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>6.3060586745539836E-6</v>
+      <c r="B63" s="6">
+        <v>1.6205972838726769E-6</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -2509,18 +1845,13 @@
       <c r="F63" t="s">
         <v>24</v>
       </c>
-      <c r="H63">
-        <v>1.4122347759461898E-5</v>
-      </c>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>84</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>1.4314753191237492E-2</v>
+      <c r="B64" s="2">
+        <v>3.678755834390964E-3</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2531,18 +1862,13 @@
       <c r="F64" t="s">
         <v>24</v>
       </c>
-      <c r="H64">
-        <v>3.2057729413978393E-2</v>
-      </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>0.17530843115260039</v>
+      <c r="B65" s="2">
+        <v>4.5052604491660327E-2</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2553,18 +1879,13 @@
       <c r="F65" t="s">
         <v>24</v>
       </c>
-      <c r="H65">
-        <v>0.39260126771303994</v>
-      </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>6.7159524883999829E-5</v>
+      <c r="B66" s="2">
+        <v>1.7259361073243985E-5</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -2575,18 +1896,13 @@
       <c r="F66" t="s">
         <v>24</v>
       </c>
-      <c r="H66">
-        <v>1.5040300363826898E-4</v>
-      </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="0"/>
-        <v>1.6238101086976466E-3</v>
+      <c r="B67" s="2">
+        <v>4.1730380059721331E-4</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -2597,18 +1913,13 @@
       <c r="F67" t="s">
         <v>24</v>
       </c>
-      <c r="H67">
-        <v>3.6365045480614296E-3</v>
-      </c>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="0"/>
-        <v>85.1317921064785</v>
+      <c r="B68" s="2">
+        <v>21.878063332281066</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -2619,18 +1930,13 @@
       <c r="F68" t="s">
         <v>24</v>
       </c>
-      <c r="H68">
-        <v>190.65169475273498</v>
-      </c>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="0"/>
-        <v>6.7474827817727478E-5</v>
+      <c r="B69" s="2">
+        <v>1.7340390937437607E-5</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -2641,18 +1947,13 @@
       <c r="F69" t="s">
         <v>24</v>
       </c>
-      <c r="H69">
-        <v>1.51109121026242E-4</v>
-      </c>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="0"/>
-        <v>0.1686870695443187</v>
+      <c r="B70" s="2">
+        <v>4.335097734359402E-2</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -2663,18 +1964,13 @@
       <c r="F70" t="s">
         <v>24</v>
       </c>
-      <c r="H70">
-        <v>0.37777280256560497</v>
-      </c>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>89</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="0"/>
-        <v>0.39728169649689976</v>
+      <c r="B71" s="2">
+        <v>0.10209762888397834</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -2685,18 +1981,13 @@
       <c r="F71" t="s">
         <v>24</v>
       </c>
-      <c r="H71">
-        <v>0.88970790884609685</v>
-      </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>90</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="0"/>
-        <v>1.0341936226268484E-5</v>
+      <c r="B72" s="6">
+        <v>2.6577795455511771E-6</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -2707,18 +1998,13 @@
       <c r="F72" t="s">
         <v>24</v>
       </c>
-      <c r="H72">
-        <v>2.3160650325517398E-5</v>
-      </c>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>91</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="0"/>
-        <v>4.0043472583417674E-3</v>
+      <c r="B73" s="2">
+        <v>1.0290792752591469E-3</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -2729,12 +2015,8 @@
       <c r="F73" t="s">
         <v>24</v>
       </c>
-      <c r="H73">
-        <v>8.9676908272582779E-3</v>
-      </c>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -2750,9 +2032,8 @@
       <c r="F74" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2760,15 +2041,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +2057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2784,15 +2065,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2800,13 +2081,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2832,40 +2113,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="2">
-        <f>0.03/H84</f>
-        <v>1</v>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84">
+        <v>6184.8937769512013</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="2">
-        <f>H85*0.0848884774183939/0.61/0.03</f>
-        <v>116521.65528797316</v>
+        <v>30</v>
+      </c>
+      <c r="B85">
+        <v>439.41337782719</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -2874,67 +2150,55 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85">
-        <v>25119.384357197399</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="2">
-        <f t="shared" ref="B86:B146" si="1">H86*0.0848884774183939/0.61/0.03</f>
-        <v>8278.4241713110096</v>
+        <v>38</v>
+      </c>
+      <c r="B86">
+        <v>704.26527679152309</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86">
-        <v>1784.6375261074597</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="2">
-        <f t="shared" si="1"/>
-        <v>13268.15928826558</v>
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>18359.052087300406</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87">
-        <v>2860.3094596516798</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="2">
-        <f t="shared" si="1"/>
-        <v>345879.36606162385</v>
+        <v>40</v>
+      </c>
+      <c r="B88">
+        <v>1700.4695785778256</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -2946,46 +2210,38 @@
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88">
-        <v>74563.62266613348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="2">
-        <f t="shared" si="1"/>
-        <v>32036.367512265144</v>
+        <v>43</v>
+      </c>
+      <c r="B89" s="6">
+        <v>1.135728554735565E-12</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89">
-        <v>6906.3027551418691</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1396805818844657E-11</v>
+        <v>7749.9277253768187</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
@@ -2994,70 +2250,55 @@
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
-      </c>
-      <c r="H90">
-        <v>4.6126583771193003E-12</v>
-      </c>
-      <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="1"/>
-        <v>146006.45370634104</v>
+        <v>-1610.1791584763469</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91">
-        <v>31475.627600867792</v>
-      </c>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="1"/>
-        <v>-30335.321449667019</v>
+        <v>0.03</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>42</v>
-      </c>
-      <c r="H92">
-        <v>-6539.5964141608893</v>
-      </c>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1149786708441735E-2</v>
+        <v>1.4311031586084167E-3</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -3068,18 +2309,13 @@
       <c r="F93" t="s">
         <v>24</v>
       </c>
-      <c r="H93">
-        <v>6.7151763596241089E-3</v>
-      </c>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7720330819418483E-11</v>
+      <c r="B94" s="6">
+        <v>8.141186212483212E-13</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -3090,18 +2326,13 @@
       <c r="F94" t="s">
         <v>24</v>
       </c>
-      <c r="H94">
-        <v>3.8200950689344294E-12</v>
-      </c>
-      <c r="J94" s="6"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7494417168496665E-2</v>
+      <c r="B95" s="6">
+        <v>2.1820184857856951E-3</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -3112,18 +2343,13 @@
       <c r="F95" t="s">
         <v>24</v>
       </c>
-      <c r="H95">
-        <v>1.0238702125609797E-2</v>
-      </c>
-      <c r="J95" s="6"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="1"/>
-        <v>14.215570380088019</v>
+        <v>0.65310070540068621</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -3134,18 +2360,13 @@
       <c r="F96" t="s">
         <v>24</v>
       </c>
-      <c r="H96">
-        <v>3.0645494638032189</v>
-      </c>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="2">
-        <f t="shared" si="1"/>
-        <v>6.7802374854336847E-5</v>
+      <c r="B97" s="6">
+        <v>3.1150194935009672E-6</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -3156,18 +2377,13 @@
       <c r="F97" t="s">
         <v>24</v>
       </c>
-      <c r="H97">
-        <v>1.4616629931043001E-5</v>
-      </c>
-      <c r="J97" s="6"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4959135091306647E-2</v>
+      <c r="B98" s="6">
+        <v>1.1466883352887639E-3</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -3178,18 +2394,13 @@
       <c r="F98" t="s">
         <v>24</v>
       </c>
-      <c r="H98">
-        <v>5.3806144963549681E-3</v>
-      </c>
-      <c r="J98" s="6"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="2">
-        <f t="shared" si="1"/>
-        <v>2.6040042516520712E-4</v>
+      <c r="B99" s="6">
+        <v>1.1963480663445764E-5</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -3200,18 +2411,13 @@
       <c r="F99" t="s">
         <v>24</v>
       </c>
-      <c r="H99">
-        <v>5.6136332343860893E-5</v>
-      </c>
-      <c r="J99" s="6"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9423578883392176</v>
+      <c r="B100" s="6">
+        <v>8.9237031866960193E-2</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -3222,18 +2428,13 @@
       <c r="F100" t="s">
         <v>24</v>
       </c>
-      <c r="H100">
-        <v>0.41872761106804401</v>
-      </c>
-      <c r="J100" s="6"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>51</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7166869463886405E-3</v>
+        <v>2.1669700824354508E-4</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -3244,18 +2445,13 @@
       <c r="F101" t="s">
         <v>24</v>
       </c>
-      <c r="H101">
-        <v>1.0168090386812501E-3</v>
-      </c>
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>25</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="1"/>
-        <v>706.61866315584916</v>
+        <v>32.463920547486147</v>
       </c>
       <c r="C102" t="s">
         <v>26</v>
@@ -3266,18 +2462,13 @@
       <c r="F102" t="s">
         <v>24</v>
       </c>
-      <c r="H102">
-        <v>152.33070410743497</v>
-      </c>
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3370685832712532E-5</v>
+      <c r="B103" s="6">
+        <v>3.3708423504551621E-6</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -3288,18 +2479,13 @@
       <c r="F103" t="s">
         <v>24</v>
       </c>
-      <c r="H103">
-        <v>1.5817029490597299E-5</v>
-      </c>
-      <c r="J103" s="6"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>54</v>
       </c>
-      <c r="B104" s="2">
-        <f t="shared" si="1"/>
-        <v>3.3082318165642672E-3</v>
+      <c r="B104" s="6">
+        <v>1.5198887383748708E-4</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -3310,18 +2496,13 @@
       <c r="F104" t="s">
         <v>24</v>
       </c>
-      <c r="H104">
-        <v>7.1317856185282389E-4</v>
-      </c>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>55</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="1"/>
-        <v>137.24248823172556</v>
+        <v>6.3052810037531772</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
@@ -3332,18 +2513,13 @@
       <c r="F105" t="s">
         <v>24</v>
       </c>
-      <c r="H105">
-        <v>29.586318556072602</v>
-      </c>
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>56</v>
       </c>
-      <c r="B106" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9063276408320819E-6</v>
+      <c r="B106" s="6">
+        <v>8.7581707498433116E-8</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -3354,18 +2530,13 @@
       <c r="F106" t="s">
         <v>24</v>
       </c>
-      <c r="H106">
-        <v>4.1096031980033995E-7</v>
-      </c>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>57</v>
       </c>
-      <c r="B107" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9063276408320818E-3</v>
+      <c r="B107" s="6">
+        <v>8.7581707498433117E-5</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -3376,18 +2547,13 @@
       <c r="F107" t="s">
         <v>24</v>
       </c>
-      <c r="H107">
-        <v>4.1096031980033995E-4</v>
-      </c>
-      <c r="J107" s="6"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>58</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="1"/>
-        <v>294.46538644468052</v>
+        <v>13.528514611871362</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
@@ -3398,18 +2564,13 @@
       <c r="F108" t="s">
         <v>24</v>
       </c>
-      <c r="H108">
-        <v>63.479953178781003</v>
-      </c>
-      <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
-      <c r="B109" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1870391658584448E-4</v>
+      <c r="B109" s="6">
+        <v>1.4642096459789586E-5</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -3420,18 +2581,13 @@
       <c r="F109" t="s">
         <v>24</v>
       </c>
-      <c r="H109">
-        <v>6.8705221849781899E-5</v>
-      </c>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>60</v>
       </c>
-      <c r="B110" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3370685832712535E-6</v>
+      <c r="B110" s="6">
+        <v>3.3708423504551622E-7</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3442,18 +2598,13 @@
       <c r="F110" t="s">
         <v>24</v>
       </c>
-      <c r="H110">
-        <v>1.5817029490597298E-6</v>
-      </c>
-      <c r="J110" s="6"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>61</v>
       </c>
-      <c r="B111" s="2">
-        <f t="shared" si="1"/>
-        <v>6.3871802399013008E-2</v>
+      <c r="B111" s="6">
+        <v>2.9344386532980144E-3</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3464,18 +2615,13 @@
       <c r="F111" t="s">
         <v>24</v>
       </c>
-      <c r="H111">
-        <v>1.3769289065475299E-2</v>
-      </c>
-      <c r="J111" s="6"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>62</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" si="1"/>
-        <v>1.3494965429945314</v>
+        <v>6.1999421803014453E-2</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -3486,18 +2632,13 @@
       <c r="F112" t="s">
         <v>24</v>
       </c>
-      <c r="H112">
-        <v>0.29092036384491399</v>
-      </c>
-      <c r="J112" s="2"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>63</v>
       </c>
-      <c r="B113" s="2">
-        <f t="shared" si="1"/>
-        <v>8.0576735334139634E-8</v>
+      <c r="B113" s="6">
+        <v>3.7019072241605788E-9</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -3508,18 +2649,13 @@
       <c r="F113" t="s">
         <v>24</v>
       </c>
-      <c r="H113">
-        <v>1.73704877441381E-8</v>
-      </c>
-      <c r="J113" s="6"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>64</v>
       </c>
-      <c r="B114" s="2">
-        <f t="shared" si="1"/>
-        <v>0.52080085033041523</v>
+      <c r="B114" s="6">
+        <v>2.3926961326891573E-2</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -3530,18 +2666,13 @@
       <c r="F114" t="s">
         <v>24</v>
       </c>
-      <c r="H114">
-        <v>0.11227266468772198</v>
-      </c>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>65</v>
       </c>
-      <c r="B115" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6685342916356225E-8</v>
+      <c r="B115" s="6">
+        <v>1.6854211752275788E-9</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -3552,18 +2683,13 @@
       <c r="F115" t="s">
         <v>24</v>
       </c>
-      <c r="H115">
-        <v>7.9085147452986395E-9</v>
-      </c>
-      <c r="J115" s="6"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>66</v>
       </c>
-      <c r="B116" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4706891937003535E-4</v>
+      <c r="B116" s="6">
+        <v>6.7567331042605692E-6</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -3574,18 +2700,13 @@
       <c r="F116" t="s">
         <v>24</v>
       </c>
-      <c r="H116">
-        <v>3.1704670719991896E-5</v>
-      </c>
-      <c r="J116" s="6"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>67</v>
       </c>
-      <c r="B117" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2253653894731728E-2</v>
+      <c r="B117" s="6">
+        <v>1.9412440321817657E-3</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -3596,18 +2717,13 @@
       <c r="F117" t="s">
         <v>24</v>
       </c>
-      <c r="H117">
-        <v>9.1089143048528991E-3</v>
-      </c>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1595188743205457E-5</v>
+      <c r="B118" s="6">
+        <v>5.3271347859871727E-7</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -3618,18 +2734,13 @@
       <c r="F118" t="s">
         <v>24</v>
       </c>
-      <c r="H118">
-        <v>2.4996555534247502E-6</v>
-      </c>
-      <c r="J118" s="6"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>69</v>
       </c>
-      <c r="B119" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1431414890900267E-5</v>
+      <c r="B119" s="6">
+        <v>5.2518927692359289E-7</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -3640,18 +2751,13 @@
       <c r="F119" t="s">
         <v>24</v>
       </c>
-      <c r="H119">
-        <v>2.46434968402609E-6</v>
-      </c>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>70</v>
       </c>
-      <c r="B120" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7753085589879512E-2</v>
+      <c r="B120" s="6">
+        <v>8.1562346158334546E-4</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -3662,18 +2768,13 @@
       <c r="F120" t="s">
         <v>24</v>
       </c>
-      <c r="H120">
-        <v>3.8271562428141594E-3</v>
-      </c>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>71</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6030247507135564E-2</v>
+        <v>1.6553243685270864E-3</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -3684,18 +2785,13 @@
       <c r="F121" t="s">
         <v>24</v>
       </c>
-      <c r="H121">
-        <v>7.7672912677040195E-3</v>
-      </c>
-      <c r="J121" s="2"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6180856607749981E-4</v>
+      <c r="B122" s="6">
+        <v>7.4339112550216459E-6</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -3706,18 +2802,13 @@
       <c r="F122" t="s">
         <v>24</v>
       </c>
-      <c r="H122">
-        <v>3.4882198965870793E-5</v>
-      </c>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="2">
-        <f t="shared" si="1"/>
-        <v>11496.924431822366</v>
+      <c r="B123" s="6">
+        <v>528.19895759364397</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -3728,18 +2819,13 @@
       <c r="F123" t="s">
         <v>24</v>
       </c>
-      <c r="H123">
-        <v>2478.472031785559</v>
-      </c>
-      <c r="J123" s="6"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="1"/>
-        <v>0.37340438325576875</v>
+        <v>1.7155179819280716E-2</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -3750,18 +2836,13 @@
       <c r="F124" t="s">
         <v>24</v>
       </c>
-      <c r="H124">
-        <v>8.0497382228932601E-2</v>
-      </c>
-      <c r="J124" s="2"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="2">
-        <f t="shared" si="1"/>
-        <v>1.473964670746456E-5</v>
+      <c r="B125" s="6">
+        <v>6.7717815076108133E-7</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -3772,18 +2853,13 @@
       <c r="F125" t="s">
         <v>24</v>
       </c>
-      <c r="H125">
-        <v>3.1775282458789194E-6</v>
-      </c>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>75</v>
       </c>
-      <c r="B126" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8332876448792956</v>
+      <c r="B126" s="6">
+        <v>0.13016868897962994</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -3794,18 +2870,13 @@
       <c r="F126" t="s">
         <v>24</v>
       </c>
-      <c r="H126">
-        <v>0.61079154059672491</v>
-      </c>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1365905349978212E-4</v>
+      <c r="B127" s="6">
+        <v>5.221795962535441E-6</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -3816,18 +2887,13 @@
       <c r="F127" t="s">
         <v>24</v>
       </c>
-      <c r="H127">
-        <v>2.4502273362666298E-5</v>
-      </c>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>77</v>
       </c>
-      <c r="B128" s="2">
-        <f t="shared" si="1"/>
-        <v>0.45529130940834939</v>
+      <c r="B128" s="6">
+        <v>2.0917280656842275E-2</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -3838,18 +2904,13 @@
       <c r="F128" t="s">
         <v>24</v>
       </c>
-      <c r="H128">
-        <v>9.8150316928259873E-2</v>
-      </c>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
       <c r="B129" s="2">
-        <f t="shared" si="1"/>
-        <v>124.69741114514991</v>
+        <v>5.7289271554387344</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
@@ -3860,18 +2921,13 @@
       <c r="F129" t="s">
         <v>24</v>
       </c>
-      <c r="H129">
-        <v>26.881888960135598</v>
-      </c>
-      <c r="J129" s="2"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5375152097914917E-4</v>
+      <c r="B130" s="6">
+        <v>1.6252275618265935E-5</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -3882,18 +2938,13 @@
       <c r="F130" t="s">
         <v>24</v>
       </c>
-      <c r="H130">
-        <v>7.6260677901094002E-5</v>
-      </c>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>79</v>
       </c>
-      <c r="B131" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14641382396081429</v>
+      <c r="B131" s="6">
+        <v>6.7266362975600593E-3</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -3904,18 +2955,13 @@
       <c r="F131" t="s">
         <v>24</v>
       </c>
-      <c r="H131">
-        <v>3.1563447242397194E-2</v>
-      </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>80</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32558241838266128</v>
+        <v>1.4958112930144757E-2</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -3926,18 +2972,13 @@
       <c r="F132" t="s">
         <v>24</v>
       </c>
-      <c r="H132">
-        <v>7.0188068364525388E-2</v>
-      </c>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6685342916356225E-8</v>
+      <c r="B133" s="6">
+        <v>1.6854211752275788E-9</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -3948,18 +2989,13 @@
       <c r="F133" t="s">
         <v>24</v>
       </c>
-      <c r="H133">
-        <v>7.9085147452986395E-9</v>
-      </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
-      <c r="B134" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4959135091306647E-2</v>
+      <c r="B134" s="6">
+        <v>1.1466883352887639E-3</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -3970,18 +3006,13 @@
       <c r="F134" t="s">
         <v>24</v>
       </c>
-      <c r="H134">
-        <v>5.3806144963549681E-3</v>
-      </c>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>82</v>
       </c>
       <c r="B135" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13724248823172555</v>
+        <v>6.3052810037531777E-3</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -3992,18 +3023,13 @@
       <c r="F135" t="s">
         <v>24</v>
       </c>
-      <c r="H135">
-        <v>2.9586318556072598E-2</v>
-      </c>
-      <c r="J135" s="2"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>83</v>
       </c>
-      <c r="B136" s="2">
-        <f t="shared" si="1"/>
-        <v>6.550954092206487E-5</v>
+      <c r="B136" s="6">
+        <v>3.0096806700492572E-6</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -4014,18 +3040,13 @@
       <c r="F136" t="s">
         <v>24</v>
       </c>
-      <c r="H136">
-        <v>1.4122347759461898E-5</v>
-      </c>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
-      <c r="B137" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14870665789308674</v>
+      <c r="B137" s="6">
+        <v>6.8319751210117897E-3</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -4036,18 +3057,13 @@
       <c r="F137" t="s">
         <v>24</v>
       </c>
-      <c r="H137">
-        <v>3.2057729413978393E-2</v>
-      </c>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>85</v>
       </c>
       <c r="B138" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8211652376333995</v>
+        <v>8.3669122627369183E-2</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -4058,18 +3074,13 @@
       <c r="F138" t="s">
         <v>24</v>
       </c>
-      <c r="H138">
-        <v>0.39260126771303994</v>
-      </c>
-      <c r="J138" s="2"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
       <c r="B139" s="2">
-        <f t="shared" si="1"/>
-        <v>6.976766108199898E-4</v>
+        <v>3.2053099136024544E-5</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -4080,18 +3091,13 @@
       <c r="F139" t="s">
         <v>24</v>
       </c>
-      <c r="H139">
-        <v>1.5040300363826898E-4</v>
-      </c>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>83</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6868706787431662E-2</v>
+        <v>7.7499277253768178E-4</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -4102,18 +3108,13 @@
       <c r="F140" t="s">
         <v>24</v>
       </c>
-      <c r="H140">
-        <v>3.6365045480614296E-3</v>
-      </c>
-      <c r="J140" s="2"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" si="1"/>
-        <v>884.37880244787277</v>
+        <v>40.630689045664845</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -4124,18 +3125,13 @@
       <c r="F141" t="s">
         <v>24</v>
       </c>
-      <c r="H141">
-        <v>190.65169475273498</v>
-      </c>
-      <c r="J141" s="2"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
       <c r="B142" s="2">
-        <f t="shared" si="1"/>
-        <v>7.0095208786609268E-4</v>
+        <v>3.2203583169526988E-5</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -4146,18 +3142,13 @@
       <c r="F142" t="s">
         <v>24</v>
       </c>
-      <c r="H142">
-        <v>1.51109121026242E-4</v>
-      </c>
-      <c r="J142" s="2"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
       <c r="B143" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7523802196652318</v>
+        <v>8.0508957923817459E-2</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -4168,18 +3159,13 @@
       <c r="F143" t="s">
         <v>24</v>
       </c>
-      <c r="H143">
-        <v>0.37777280256560497</v>
-      </c>
-      <c r="J143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
       <c r="B144" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1271010780900745</v>
+        <v>0.18960988221310263</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -4190,18 +3176,13 @@
       <c r="F144" t="s">
         <v>24</v>
       </c>
-      <c r="H144">
-        <v>0.88970790884609685</v>
-      </c>
-      <c r="J144" s="2"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
-      <c r="B145" s="2">
-        <f t="shared" si="1"/>
-        <v>1.0743564711218586E-4</v>
+      <c r="B145" s="6">
+        <v>4.9358762988807574E-6</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -4212,18 +3193,13 @@
       <c r="F145" t="s">
         <v>24</v>
       </c>
-      <c r="H145">
-        <v>2.3160650325517398E-5</v>
-      </c>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
-      <c r="B146" s="2">
-        <f t="shared" si="1"/>
-        <v>4.159855848551107E-2</v>
+      <c r="B146" s="6">
+        <v>1.9111472254812727E-3</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -4234,14 +3210,10 @@
       <c r="F146" t="s">
         <v>24</v>
       </c>
-      <c r="H146">
-        <v>8.9676908272582779E-3</v>
-      </c>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
@@ -4255,11 +3227,8 @@
       <c r="F147" t="s">
         <v>24</v>
       </c>
-      <c r="J147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -4267,23 +3236,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -4291,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -4299,7 +3268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4307,13 +3276,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -4339,61 +3308,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B158" s="2">
-        <f>0.29/H158</f>
-        <v>1</v>
+        <v>41484.015836092483</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
-      </c>
-      <c r="H158" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H158">
+        <f>B158*8/10</f>
+        <v>33187.212668873988</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B159" s="2">
-        <f>H159*0.0493378453990471/0.08/0.29</f>
-        <v>110276.50645758364</v>
+        <v>6.8188301333819989</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="H159">
-        <v>51855.019795115601</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H159:H222" si="0">B159*8/10</f>
+        <v>5.4550641067055992</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B160" s="2">
-        <f>H160*0.0493378453990471/0.08/0.29</f>
-        <v>18.126421709222242</v>
+        <v>-13939.972932776</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -4405,22 +3373,22 @@
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H160">
-        <v>8.5235376667274991</v>
+        <f t="shared" si="0"/>
+        <v>-11151.9783462208</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B161" s="2">
-        <f t="shared" ref="B161:B224" si="2">H161*0.0493378453990471/0.08/0.29</f>
-        <v>-37056.477878459242</v>
+        <v>6.6844689484877684E-4</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="E161" t="s">
         <v>3</v>
@@ -4429,115 +3397,115 @@
         <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H161">
-        <v>-17424.96616597</v>
+        <f t="shared" si="0"/>
+        <v>5.3475751587902143E-4</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B162" s="2">
-        <f t="shared" si="2"/>
-        <v>1.776925083810455E-3</v>
+        <v>60.126630240166399</v>
       </c>
       <c r="C162" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H162">
-        <v>8.3555861856097102E-4</v>
+        <f t="shared" si="0"/>
+        <v>48.101304192133121</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>106</v>
-      </c>
-      <c r="B163" s="2">
-        <f t="shared" si="2"/>
-        <v>159.83396482516164</v>
+        <v>43</v>
+      </c>
+      <c r="B163" s="6">
+        <v>4.8705929524157117E-8</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E163" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="H163">
-        <v>75.158287800208001</v>
+        <f t="shared" si="0"/>
+        <v>3.8964743619325695E-8</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B164" s="2">
-        <f t="shared" si="2"/>
-        <v>1.2947444078015882E-7</v>
+        <v>8834.2479067953591</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
-      </c>
-      <c r="H164" s="18">
-        <v>6.0882411905196394E-8</v>
+        <v>18</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="0"/>
+        <v>7067.3983254362875</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>35</v>
-      </c>
-      <c r="B165" s="2">
-        <f t="shared" si="2"/>
-        <v>23483.984775987334</v>
+        <v>109</v>
+      </c>
+      <c r="B165" s="6">
+        <v>1.3436118489422639E-10</v>
       </c>
       <c r="C165" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E165" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="H165">
-        <v>11042.809883494199</v>
+        <f t="shared" si="0"/>
+        <v>1.0748894791538111E-10</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>107</v>
-      </c>
-      <c r="B166" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5717087111767917E-10</v>
+        <v>110</v>
+      </c>
+      <c r="B166" s="6">
+        <v>1.6761557815554799E-6</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -4549,22 +3517,22 @@
         <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>117</v>
-      </c>
-      <c r="H166" s="18">
-        <v>1.6795148111778299E-10</v>
+        <v>120</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="0"/>
+        <v>1.3409246252443838E-6</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B167" s="2">
-        <f t="shared" si="2"/>
-        <v>4.4557066171930618E-6</v>
+        <v>2317.7304394254079</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E167" t="s">
         <v>3</v>
@@ -4573,22 +3541,22 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>118</v>
-      </c>
-      <c r="H167" s="18">
-        <v>2.0951947269443498E-6</v>
+        <v>29</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="0"/>
+        <v>1854.1843515403264</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B168" s="2">
-        <f t="shared" si="2"/>
-        <v>6161.1975267799717</v>
+        <v>1414.151471011736</v>
       </c>
       <c r="C168" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
         <v>3</v>
@@ -4597,19 +3565,19 @@
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="H168">
-        <v>2897.1630492817599</v>
+        <f t="shared" si="0"/>
+        <v>1131.3211768093888</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B169" s="2">
-        <f t="shared" si="2"/>
-        <v>3759.2234185135812</v>
+        <v>-8128.8516861007201</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -4621,19 +3589,19 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H169">
-        <v>1767.6893387646701</v>
+        <f t="shared" si="0"/>
+        <v>-6503.0813488805761</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B170" s="2">
-        <f t="shared" si="2"/>
-        <v>-21608.837702619647</v>
+        <v>1.508204300437696E-2</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -4645,67 +3613,67 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H170">
-        <v>-10161.0646076259</v>
+        <f t="shared" si="0"/>
+        <v>1.2065634403501568E-2</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B171" s="2">
-        <f t="shared" si="2"/>
-        <v>4.0092430282959612E-2</v>
+        <v>1.0614533606643921</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F171" t="s">
         <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H171">
-        <v>1.8852553755471201E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.84916268853151367</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B172" s="2">
-        <f t="shared" si="2"/>
-        <v>2.8216498818296745</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="H172">
-        <v>1.3268167008304901</v>
+        <f t="shared" si="0"/>
+        <v>0.23199999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>65</v>
       </c>
-      <c r="B173" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6340567353633837E-6</v>
+      <c r="B173" s="6">
+        <v>6.147024208910864E-7</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -4716,8 +3684,9 @@
       <c r="F173" t="s">
         <v>24</v>
       </c>
-      <c r="H173" s="18">
-        <v>7.68378026113858E-7</v>
+      <c r="H173">
+        <f t="shared" si="0"/>
+        <v>4.9176193671286916E-7</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -4725,8 +3694,7 @@
         <v>66</v>
       </c>
       <c r="B174" s="2">
-        <f t="shared" si="2"/>
-        <v>6.5540854850094157E-3</v>
+        <v>2.4655277428090559E-3</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -4738,7 +3706,8 @@
         <v>24</v>
       </c>
       <c r="H174">
-        <v>3.0819096785113199E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.9724221942472447E-3</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -4746,8 +3715,7 @@
         <v>64</v>
       </c>
       <c r="B175" s="2">
-        <f t="shared" si="2"/>
-        <v>3.8931624951827138E-3</v>
+        <v>1.464536915347072E-3</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -4759,7 +3727,8 @@
         <v>24</v>
       </c>
       <c r="H175">
-        <v>1.8306711441838401E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.1716295322776577E-3</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -4767,8 +3736,7 @@
         <v>82</v>
       </c>
       <c r="B176" s="2">
-        <f t="shared" si="2"/>
-        <v>1.0268662544633294</v>
+        <v>0.38628840657090163</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -4780,7 +3748,8 @@
         <v>24</v>
       </c>
       <c r="H176">
-        <v>0.48286050821362703</v>
+        <f t="shared" si="0"/>
+        <v>0.30903072525672132</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -4788,8 +3757,7 @@
         <v>54</v>
       </c>
       <c r="B177" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8483592580339917E-3</v>
+        <v>6.953191318276224E-4</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -4801,16 +3769,16 @@
         <v>24</v>
       </c>
       <c r="H177">
-        <v>8.69148914784528E-4</v>
+        <f t="shared" si="0"/>
+        <v>5.5625530546209796E-4</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="2">
-        <f t="shared" si="2"/>
-        <v>4.920028749646029E-8</v>
+      <c r="B178" s="6">
+        <v>1.8508253219179682E-8</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -4821,17 +3789,17 @@
       <c r="F178" t="s">
         <v>24</v>
       </c>
-      <c r="H178" s="18">
-        <v>2.3135316523974601E-8</v>
+      <c r="H178">
+        <f t="shared" si="0"/>
+        <v>1.4806602575343745E-8</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>72</v>
       </c>
-      <c r="B179" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6340567353633837E-6</v>
+      <c r="B179" s="6">
+        <v>6.147024208910864E-7</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -4842,8 +3810,9 @@
       <c r="F179" t="s">
         <v>24</v>
       </c>
-      <c r="H179" s="18">
-        <v>7.68378026113858E-7</v>
+      <c r="H179">
+        <f t="shared" si="0"/>
+        <v>4.9176193671286916E-7</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -4851,8 +3820,7 @@
         <v>67</v>
       </c>
       <c r="B180" s="2">
-        <f t="shared" si="2"/>
-        <v>0.32859720142826615</v>
+        <v>0.12361229010268879</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -4864,7 +3832,8 @@
         <v>24</v>
       </c>
       <c r="H180">
-        <v>0.15451536262836099</v>
+        <f t="shared" si="0"/>
+        <v>9.8889832082151033E-2</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,8 +3841,7 @@
         <v>69</v>
       </c>
       <c r="B181" s="2">
-        <f t="shared" si="2"/>
-        <v>2.8752255124973106E-2</v>
+        <v>1.0816075383985201E-2</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -4885,16 +3853,16 @@
         <v>24</v>
       </c>
       <c r="H181">
-        <v>1.3520094229981501E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.6528603071881604E-3</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>63</v>
       </c>
-      <c r="B182" s="2">
-        <f t="shared" si="2"/>
-        <v>3.6074257982885631E-6</v>
+      <c r="B182" s="6">
+        <v>1.3570479674316881E-6</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -4905,8 +3873,9 @@
       <c r="F182" t="s">
         <v>24</v>
       </c>
-      <c r="H182" s="18">
-        <v>1.6963099592896101E-6</v>
+      <c r="H182">
+        <f t="shared" si="0"/>
+        <v>1.0856383739453506E-6</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -4914,8 +3883,7 @@
         <v>25</v>
       </c>
       <c r="B183" s="2">
-        <f t="shared" si="2"/>
-        <v>720.73510082836196</v>
+        <v>271.12743499805839</v>
       </c>
       <c r="C183" t="s">
         <v>26</v>
@@ -4927,16 +3895,16 @@
         <v>24</v>
       </c>
       <c r="H183">
-        <v>338.90929374757297</v>
+        <f t="shared" si="0"/>
+        <v>216.9019479984467</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>72</v>
       </c>
-      <c r="B184" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0626617807045995E-5</v>
+      <c r="B184" s="6">
+        <v>7.7593584276415841E-6</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -4947,17 +3915,17 @@
       <c r="F184" t="s">
         <v>24</v>
       </c>
-      <c r="H184" s="18">
-        <v>9.6991980345519797E-6</v>
+      <c r="H184">
+        <f t="shared" si="0"/>
+        <v>6.2074867421132676E-6</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B185" s="2">
-        <f t="shared" si="2"/>
-        <v>1.9822983347031222E-2</v>
+        <v>7.4570457616295761E-3</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
@@ -4969,28 +3937,29 @@
         <v>24</v>
       </c>
       <c r="H185">
-        <v>9.3213072020369696E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.9656366093036612E-3</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B186" s="2">
-        <f t="shared" si="2"/>
-        <v>14.197542126927756</v>
+        <v>5.340857099545504</v>
       </c>
       <c r="C186" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D186" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F186" t="s">
         <v>24</v>
       </c>
       <c r="H186">
-        <v>6.6760713744318796</v>
+        <f t="shared" si="0"/>
+        <v>4.2726856796364032</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -4998,8 +3967,7 @@
         <v>25</v>
       </c>
       <c r="B187" s="2">
-        <f t="shared" si="2"/>
-        <v>127.18854720500485</v>
+        <v>47.846017940833761</v>
       </c>
       <c r="C187" t="s">
         <v>26</v>
@@ -5011,16 +3979,16 @@
         <v>24</v>
       </c>
       <c r="H187">
-        <v>59.807522426042198</v>
+        <f t="shared" si="0"/>
+        <v>38.27681435266701</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B188" s="2">
-        <f t="shared" si="2"/>
-        <v>8.0095567848139684</v>
+        <v>3.0130495712530321</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -5032,16 +4000,16 @@
         <v>24</v>
       </c>
       <c r="H188">
-        <v>3.7663119640662899</v>
+        <f t="shared" si="0"/>
+        <v>2.4104396570024256</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B189" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24823375542678661</v>
+        <v>9.3381023501487206E-2</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -5053,7 +4021,8 @@
         <v>24</v>
       </c>
       <c r="H189">
-        <v>0.116726279376859</v>
+        <f t="shared" si="0"/>
+        <v>7.470481880118976E-2</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -5061,8 +4030,7 @@
         <v>74</v>
       </c>
       <c r="B190" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8215714427001651E-3</v>
+        <v>6.8524204296055522E-4</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -5074,16 +4042,16 @@
         <v>24</v>
       </c>
       <c r="H190">
-        <v>8.5655255370069403E-4</v>
+        <f t="shared" si="0"/>
+        <v>5.4819363436844416E-4</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>56</v>
       </c>
-      <c r="B191" s="2">
-        <f t="shared" si="2"/>
-        <v>8.5185252761566592E-5</v>
+      <c r="B191" s="6">
+        <v>3.2045142597273042E-5</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
@@ -5094,8 +4062,9 @@
       <c r="F191" t="s">
         <v>24</v>
       </c>
-      <c r="H191" s="18">
-        <v>4.0056428246591303E-5</v>
+      <c r="H191">
+        <f t="shared" si="0"/>
+        <v>2.5636114077818433E-5</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -5103,8 +4072,7 @@
         <v>47</v>
       </c>
       <c r="B192" s="2">
-        <f t="shared" si="2"/>
-        <v>0.23305399340428692</v>
+        <v>8.7670673143483202E-2</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -5116,7 +4084,8 @@
         <v>24</v>
       </c>
       <c r="H192">
-        <v>0.109588341429354</v>
+        <f t="shared" si="0"/>
+        <v>7.0136538514786559E-2</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -5124,8 +4093,7 @@
         <v>52</v>
       </c>
       <c r="B193" s="2">
-        <f t="shared" si="2"/>
-        <v>0.19287227040354687</v>
+        <v>7.2555039842882321E-2</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -5137,7 +4105,8 @@
         <v>24</v>
       </c>
       <c r="H193">
-        <v>9.0693799803602898E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.804403187430586E-2</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5145,8 +4114,7 @@
         <v>71</v>
       </c>
       <c r="B194" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6161981918075004</v>
+        <v>0.60798436164637526</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -5158,7 +4126,8 @@
         <v>24</v>
       </c>
       <c r="H194">
-        <v>0.75998045205796905</v>
+        <f t="shared" si="0"/>
+        <v>0.48638748931710019</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,8 +4135,7 @@
         <v>84</v>
       </c>
       <c r="B195" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1161589722427476E-3</v>
+        <v>4.1987870279445761E-4</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -5179,7 +4147,8 @@
         <v>24</v>
       </c>
       <c r="H195">
-        <v>5.2484837849307202E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.3590296223556609E-4</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,8 +4156,7 @@
         <v>50</v>
       </c>
       <c r="B196" s="2">
-        <f t="shared" si="2"/>
-        <v>106.25833415750967</v>
+        <v>39.972452506032404</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -5200,28 +4168,29 @@
         <v>24</v>
       </c>
       <c r="H196">
-        <v>49.965565632540503</v>
+        <f t="shared" si="0"/>
+        <v>31.977962004825923</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B197" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20001568782590057</v>
+        <v>7.5242263540766879E-2</v>
       </c>
       <c r="C197" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D197" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F197" t="s">
         <v>24</v>
       </c>
       <c r="H197">
-        <v>9.4052829425958606E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0193810832613506E-2</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -5229,8 +4198,7 @@
         <v>84</v>
       </c>
       <c r="B198" s="2">
-        <f t="shared" si="2"/>
-        <v>3.116315850501758E-2</v>
+        <v>1.172301338202128E-2</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
@@ -5242,7 +4210,8 @@
         <v>24</v>
       </c>
       <c r="H198">
-        <v>1.46537667275266E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.3784107056170234E-3</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -5250,8 +4219,7 @@
         <v>91</v>
       </c>
       <c r="B199" s="2">
-        <f t="shared" si="2"/>
-        <v>0.31073865787238047</v>
+        <v>0.11689423085797682</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
@@ -5263,7 +4231,8 @@
         <v>24</v>
       </c>
       <c r="H199">
-        <v>0.14611778857247101</v>
+        <f t="shared" si="0"/>
+        <v>9.3515384686381459E-2</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -5271,8 +4240,7 @@
         <v>53</v>
       </c>
       <c r="B200" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2770427425047079E-3</v>
+        <v>1.232763871404528E-3</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -5284,7 +4252,8 @@
         <v>24</v>
       </c>
       <c r="H200">
-        <v>1.54095483925566E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.8621109712362237E-4</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,8 +4261,7 @@
         <v>55</v>
       </c>
       <c r="B201" s="2">
-        <f t="shared" si="2"/>
-        <v>11.250882440206903</v>
+        <v>4.2323773241681355</v>
       </c>
       <c r="C201" t="s">
         <v>26</v>
@@ -5305,7 +4273,8 @@
         <v>24</v>
       </c>
       <c r="H201">
-        <v>5.2904716552101698</v>
+        <f t="shared" si="0"/>
+        <v>3.3859018593345085</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -5313,8 +4282,7 @@
         <v>59</v>
       </c>
       <c r="B202" s="2">
-        <f t="shared" si="2"/>
-        <v>0.50361092827592746</v>
+        <v>0.18944927070085921</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -5326,7 +4294,8 @@
         <v>24</v>
       </c>
       <c r="H202">
-        <v>0.23681158837607399</v>
+        <f t="shared" si="0"/>
+        <v>0.15155941656068736</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -5334,8 +4303,7 @@
         <v>62</v>
       </c>
       <c r="B203" s="2">
-        <f t="shared" si="2"/>
-        <v>26341.351744928845</v>
+        <v>9909.1373859491996</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -5347,7 +4315,8 @@
         <v>24</v>
       </c>
       <c r="H203">
-        <v>12386.4217324365</v>
+        <f t="shared" si="0"/>
+        <v>7927.30990875936</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -5355,8 +4324,7 @@
         <v>87</v>
       </c>
       <c r="B204" s="2">
-        <f t="shared" si="2"/>
-        <v>3.116315850501758E-2</v>
+        <v>1.172301338202128E-2</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -5368,7 +4336,8 @@
         <v>24</v>
       </c>
       <c r="H204">
-        <v>1.46537667275266E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.3784107056170234E-3</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -5376,8 +4345,7 @@
         <v>58</v>
       </c>
       <c r="B205" s="2">
-        <f t="shared" si="2"/>
-        <v>836.67276559315985</v>
+        <v>314.74107561472402</v>
       </c>
       <c r="C205" t="s">
         <v>26</v>
@@ -5389,7 +4357,8 @@
         <v>24</v>
       </c>
       <c r="H205">
-        <v>393.42634451840502</v>
+        <f t="shared" si="0"/>
+        <v>251.79286049177921</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,8 +4366,7 @@
         <v>76</v>
       </c>
       <c r="B206" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15536932893619063</v>
+        <v>5.8447115428988561E-2</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5410,7 +4378,8 @@
         <v>24</v>
       </c>
       <c r="H206">
-        <v>7.3058894286235701E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6757692343190847E-2</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -5418,8 +4387,7 @@
         <v>51</v>
       </c>
       <c r="B207" s="2">
-        <f t="shared" si="2"/>
-        <v>0.14822591151383699</v>
+        <v>5.5759891731104003E-2</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
@@ -5431,7 +4399,8 @@
         <v>24</v>
       </c>
       <c r="H207">
-        <v>6.9699864663880007E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4607913384883201E-2</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -5439,8 +4408,7 @@
         <v>68</v>
       </c>
       <c r="B208" s="2">
-        <f t="shared" si="2"/>
-        <v>3.2145378400591187E-2</v>
+        <v>1.2092506640480399E-2</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -5452,16 +4420,16 @@
         <v>24</v>
       </c>
       <c r="H208">
-        <v>1.5115633300600499E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.6740053123843192E-3</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B209" s="2">
-        <f t="shared" si="2"/>
-        <v>3178.820752947347</v>
+        <v>1195.8145455586159</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -5473,7 +4441,8 @@
         <v>24</v>
       </c>
       <c r="H209">
-        <v>1494.76818194827</v>
+        <f t="shared" si="0"/>
+        <v>956.65163644689278</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -5481,8 +4450,7 @@
         <v>61</v>
       </c>
       <c r="B210" s="2">
-        <f t="shared" si="2"/>
-        <v>0.49378872932019141</v>
+        <v>0.18575433811626801</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
@@ -5494,7 +4462,8 @@
         <v>24</v>
       </c>
       <c r="H210">
-        <v>0.232192922645335</v>
+        <f t="shared" si="0"/>
+        <v>0.14860347049301442</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -5502,8 +4471,7 @@
         <v>89</v>
       </c>
       <c r="B211" s="2">
-        <f t="shared" si="2"/>
-        <v>30.984573069458722</v>
+        <v>11.655832789574159</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -5515,7 +4483,8 @@
         <v>24</v>
       </c>
       <c r="H211">
-        <v>14.5697909869677</v>
+        <f t="shared" si="0"/>
+        <v>9.324666231659327</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -5523,8 +4492,7 @@
         <v>83</v>
       </c>
       <c r="B212" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3661785820251249E-3</v>
+        <v>5.1393153222041685E-4</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
@@ -5536,7 +4504,8 @@
         <v>24</v>
       </c>
       <c r="H212">
-        <v>6.4241441527552101E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.1114522577633347E-4</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -5544,8 +4513,7 @@
         <v>77</v>
       </c>
       <c r="B213" s="2">
-        <f t="shared" si="2"/>
-        <v>1.8572885298119329E-2</v>
+        <v>6.9867816144997767E-3</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
@@ -5557,7 +4525,8 @@
         <v>24</v>
       </c>
       <c r="H213">
-        <v>8.7334770181247204E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.589425291599821E-3</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,8 +4534,7 @@
         <v>83</v>
       </c>
       <c r="B214" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15358347458060226</v>
+        <v>5.7775309504517439E-2</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -5578,28 +4546,29 @@
         <v>24</v>
       </c>
       <c r="H214">
-        <v>7.2219136880646795E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.622024760361395E-2</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B215" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20001568782590057</v>
+        <v>7.5242263540766879E-2</v>
       </c>
       <c r="C215" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D215" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
       </c>
       <c r="H215">
-        <v>9.4052829425958606E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0193810832613506E-2</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -5607,8 +4576,7 @@
         <v>49</v>
       </c>
       <c r="B216" s="2">
-        <f t="shared" si="2"/>
-        <v>8.6346058092699081E-3</v>
+        <v>3.2481816448179284E-3</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
@@ -5620,7 +4588,8 @@
         <v>24</v>
       </c>
       <c r="H216">
-        <v>4.0602270560224103E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.5985453158543425E-3</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -5628,8 +4597,7 @@
         <v>90</v>
       </c>
       <c r="B217" s="2">
-        <f t="shared" si="2"/>
-        <v>0.19822983347031223</v>
+        <v>7.4570457616295757E-2</v>
       </c>
       <c r="C217" t="s">
         <v>7</v>
@@ -5641,7 +4609,8 @@
         <v>24</v>
       </c>
       <c r="H217">
-        <v>9.32130720203697E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.9656366093036609E-2</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -5649,8 +4618,7 @@
         <v>78</v>
       </c>
       <c r="B218" s="2">
-        <f t="shared" si="2"/>
-        <v>0.98221989557361922</v>
+        <v>0.36949325845912318</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
@@ -5662,7 +4630,8 @@
         <v>24</v>
       </c>
       <c r="H218">
-        <v>0.461866573073904</v>
+        <f t="shared" si="0"/>
+        <v>0.29559460676729854</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -5670,8 +4639,7 @@
         <v>32</v>
       </c>
       <c r="B219" s="2">
-        <f t="shared" si="2"/>
-        <v>3.1431036658355761E-2</v>
+        <v>1.1823784270691921E-2</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -5683,7 +4651,8 @@
         <v>24</v>
       </c>
       <c r="H219">
-        <v>1.47797303383649E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.4590274165535365E-3</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -5691,8 +4660,7 @@
         <v>70</v>
       </c>
       <c r="B220" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7234278922723133E-4</v>
+        <v>1.02450403481848E-4</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -5704,16 +4672,16 @@
         <v>24</v>
       </c>
       <c r="H220">
-        <v>1.2806300435231E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.1960322785478394E-5</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B221" s="2">
-        <f t="shared" si="2"/>
-        <v>0.7241639411910944</v>
+        <v>0.27241730237304396</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -5725,7 +4693,8 @@
         <v>24</v>
       </c>
       <c r="H221">
-        <v>0.34052162796630497</v>
+        <f t="shared" si="0"/>
+        <v>0.21793384189843518</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -5733,8 +4702,7 @@
         <v>88</v>
       </c>
       <c r="B222" s="2">
-        <f t="shared" si="2"/>
-        <v>1.3126029513574717E-2</v>
+        <v>4.9377735448628236E-3</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -5746,7 +4714,8 @@
         <v>24</v>
       </c>
       <c r="H222">
-        <v>6.1722169310785297E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.9502188358902591E-3</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -5754,8 +4723,7 @@
         <v>81</v>
       </c>
       <c r="B223" s="2">
-        <f t="shared" si="2"/>
-        <v>0.19287227040354687</v>
+        <v>7.2555039842882321E-2</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
@@ -5767,16 +4735,16 @@
         <v>24</v>
       </c>
       <c r="H223">
-        <v>9.0693799803602898E-2</v>
+        <f t="shared" ref="H223:H232" si="1">B223*8/10</f>
+        <v>5.804403187430586E-2</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B224" s="2">
-        <f t="shared" si="2"/>
-        <v>2294.8228469310975</v>
+        <v>863.27061294540795</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
@@ -5788,7 +4756,8 @@
         <v>24</v>
       </c>
       <c r="H224">
-        <v>1079.08826618176</v>
+        <f t="shared" si="1"/>
+        <v>690.61649035632638</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -5796,8 +4765,7 @@
         <v>80</v>
       </c>
       <c r="B225" s="2">
-        <f t="shared" ref="B225:B231" si="3">H225*0.0493378453990471/0.08/0.29</f>
-        <v>15.983396482516165</v>
+        <v>6.0126630240166401</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -5809,16 +4777,16 @@
         <v>24</v>
       </c>
       <c r="H225">
-        <v>7.5158287800207999</v>
+        <f t="shared" si="1"/>
+        <v>4.8101304192133121</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>51</v>
       </c>
-      <c r="B226" s="2">
-        <f t="shared" si="3"/>
-        <v>3.5270623522870881E-5</v>
+      <c r="B226" s="6">
+        <v>1.3268167008304881E-5</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -5829,8 +4797,9 @@
       <c r="F226" t="s">
         <v>24</v>
       </c>
-      <c r="H226" s="18">
-        <v>1.6585208760381101E-5</v>
+      <c r="H226">
+        <f t="shared" si="1"/>
+        <v>1.0614533606643904E-5</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,8 +4807,7 @@
         <v>79</v>
       </c>
       <c r="B227" s="2">
-        <f t="shared" si="3"/>
-        <v>3.7681526902915131E-3</v>
+        <v>1.4175105006340879E-3</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -5851,7 +4819,8 @@
         <v>24</v>
       </c>
       <c r="H227">
-        <v>1.7718881257926099E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.1340084005072703E-3</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -5859,8 +4828,7 @@
         <v>33</v>
       </c>
       <c r="B228" s="2">
-        <f t="shared" si="3"/>
-        <v>17.144201813648614</v>
+        <v>6.4493368749228726</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -5872,7 +4840,8 @@
         <v>24</v>
       </c>
       <c r="H228">
-        <v>8.0616710936535902</v>
+        <f t="shared" si="1"/>
+        <v>5.1594694999382984</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -5880,8 +4849,7 @@
         <v>22</v>
       </c>
       <c r="B229" s="2">
-        <f t="shared" si="3"/>
-        <v>883.10497883846267</v>
+        <v>332.20802965097516</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -5893,7 +4861,8 @@
         <v>24</v>
       </c>
       <c r="H229">
-        <v>415.26003706371898</v>
+        <f t="shared" si="1"/>
+        <v>265.76642372078015</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -5901,8 +4870,7 @@
         <v>60</v>
       </c>
       <c r="B230" s="2">
-        <f t="shared" si="3"/>
-        <v>3.2770427425047081E-4</v>
+        <v>1.232763871404528E-4</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -5914,16 +4882,16 @@
         <v>24</v>
       </c>
       <c r="H230">
-        <v>1.54095483925566E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.8621109712362232E-5</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>57</v>
       </c>
-      <c r="B231" s="2">
-        <f t="shared" si="3"/>
-        <v>6.2147731574476291E-5</v>
+      <c r="B231" s="6">
+        <v>2.3378846171595437E-5</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -5934,8 +4902,9 @@
       <c r="F231" t="s">
         <v>24</v>
       </c>
-      <c r="H231" s="18">
-        <v>2.9223557714494299E-5</v>
+      <c r="H231">
+        <f t="shared" si="1"/>
+        <v>1.8703076937276351E-5</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -5954,6 +4923,10 @@
       <c r="F232" t="s">
         <v>24</v>
       </c>
+      <c r="H232">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="234" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -5968,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -5976,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="B236" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -5992,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -6037,59 +5010,50 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B242" s="2">
-        <f>0.07/H242</f>
-        <v>1</v>
+        <v>41484.015836092483</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E242" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G242" t="s">
-        <v>99</v>
-      </c>
-      <c r="H242" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B243" s="2">
-        <f>H243/0.128134695575195*0.18/$H$242</f>
-        <v>1040635.2383683919</v>
+        <v>6.8188301333819989</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F243" t="s">
         <v>13</v>
       </c>
       <c r="G243" t="s">
-        <v>20</v>
-      </c>
-      <c r="H243">
-        <v>51855.019795115601</v>
+        <v>115</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B244" s="2">
-        <f t="shared" ref="B244:B307" si="4">H244/0.128134695575195*0.18/$H$242</f>
-        <v>171.0517841204724</v>
+        <v>-13939.972932776</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -6101,22 +5065,18 @@
         <v>13</v>
       </c>
       <c r="G244" t="s">
-        <v>113</v>
-      </c>
-      <c r="H244">
-        <v>8.5235376667274991</v>
+        <v>116</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B245" s="2">
-        <f t="shared" si="4"/>
-        <v>-349687.14487682772</v>
+        <v>6.6844689484877684E-4</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="E245" t="s">
         <v>3</v>
@@ -6125,115 +5085,95 @@
         <v>13</v>
       </c>
       <c r="G245" t="s">
-        <v>114</v>
-      </c>
-      <c r="H245">
-        <v>-17424.96616597</v>
+        <v>117</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B246" s="2">
-        <f t="shared" si="4"/>
-        <v>1.6768130561563541E-2</v>
+        <v>60.126630240166399</v>
       </c>
       <c r="C246" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="E246" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F246" t="s">
         <v>13</v>
       </c>
       <c r="G246" t="s">
-        <v>115</v>
-      </c>
-      <c r="H246">
-        <v>8.3555861856097102E-4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>106</v>
-      </c>
-      <c r="B247" s="2">
-        <f t="shared" si="4"/>
-        <v>1508.2891309145107</v>
+        <v>43</v>
+      </c>
+      <c r="B247" s="6">
+        <v>4.8705929524157117E-8</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E247" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F247" t="s">
         <v>13</v>
       </c>
       <c r="G247" t="s">
-        <v>116</v>
-      </c>
-      <c r="H247">
-        <v>75.158287800208001</v>
+        <v>41</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B248" s="2">
-        <f t="shared" si="4"/>
-        <v>1.221798458003374E-6</v>
+        <v>8834.2479067953591</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E248" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="F248" t="s">
         <v>13</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
-      </c>
-      <c r="H248" s="18">
-        <v>6.0882411905196394E-8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>35</v>
-      </c>
-      <c r="B249" s="2">
-        <f t="shared" si="4"/>
-        <v>221608.9616930249</v>
+        <v>109</v>
+      </c>
+      <c r="B249" s="6">
+        <v>1.3436118489422639E-10</v>
       </c>
       <c r="C249" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E249" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="F249" t="s">
         <v>13</v>
       </c>
       <c r="G249" t="s">
-        <v>18</v>
-      </c>
-      <c r="H249">
-        <v>11042.809883494199</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>107</v>
-      </c>
-      <c r="B250" s="2">
-        <f t="shared" si="4"/>
-        <v>3.3704785048368907E-9</v>
+        <v>110</v>
+      </c>
+      <c r="B250" s="6">
+        <v>1.6761557815554799E-6</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -6245,22 +5185,18 @@
         <v>13</v>
       </c>
       <c r="G250" t="s">
-        <v>117</v>
-      </c>
-      <c r="H250" s="18">
-        <v>1.6795148111778299E-10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="B251" s="2">
-        <f t="shared" si="4"/>
-        <v>4.2046719347840345E-5</v>
+        <v>2317.7304394254079</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E251" t="s">
         <v>3</v>
@@ -6269,22 +5205,18 @@
         <v>13</v>
       </c>
       <c r="G251" t="s">
-        <v>118</v>
-      </c>
-      <c r="H251" s="18">
-        <v>2.0951947269443498E-6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B252" s="2">
-        <f t="shared" si="4"/>
-        <v>58140.754208436425</v>
+        <v>1414.151471011736</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E252" t="s">
         <v>3</v>
@@ -6293,19 +5225,15 @@
         <v>13</v>
       </c>
       <c r="G252" t="s">
-        <v>29</v>
-      </c>
-      <c r="H252">
-        <v>2897.1630492817599</v>
+        <v>121</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B253" s="2">
-        <f t="shared" si="4"/>
-        <v>35474.286263408358</v>
+        <v>-8128.8516861007201</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -6317,19 +5245,15 @@
         <v>13</v>
       </c>
       <c r="G253" t="s">
-        <v>119</v>
-      </c>
-      <c r="H253">
-        <v>1767.6893387646701</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B254" s="2">
-        <f t="shared" si="4"/>
-        <v>-203913.94954263244</v>
+        <v>1.508204300437696E-2</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
@@ -6341,67 +5265,55 @@
         <v>13</v>
       </c>
       <c r="G254" t="s">
-        <v>120</v>
-      </c>
-      <c r="H254">
-        <v>-10161.0646076259</v>
+        <v>123</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B255" s="2">
-        <f t="shared" si="4"/>
-        <v>0.37833621216794217</v>
+        <v>1.0614533606643921</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
       </c>
       <c r="E255" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F255" t="s">
         <v>13</v>
       </c>
       <c r="G255" t="s">
-        <v>121</v>
-      </c>
-      <c r="H255">
-        <v>1.8852553755471201E-2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B256" s="2">
-        <f t="shared" si="4"/>
-        <v>26.626780188211526</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="E256" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F256" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G256" t="s">
-        <v>122</v>
-      </c>
-      <c r="H256">
-        <v>1.3268167008304901</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>65</v>
       </c>
-      <c r="B257" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5419939159628791E-5</v>
+      <c r="B257" s="6">
+        <v>6.147024208910864E-7</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -6412,17 +5324,13 @@
       <c r="F257" t="s">
         <v>24</v>
       </c>
-      <c r="H257" s="18">
-        <v>7.68378026113858E-7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>66</v>
       </c>
       <c r="B258" s="2">
-        <f t="shared" si="4"/>
-        <v>6.1848280563756977E-2</v>
+        <v>2.4655277428090559E-3</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -6433,17 +5341,13 @@
       <c r="F258" t="s">
         <v>24</v>
       </c>
-      <c r="H258">
-        <v>3.0819096785113199E-3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>64</v>
       </c>
       <c r="B259" s="2">
-        <f t="shared" si="4"/>
-        <v>3.6738215702722218E-2</v>
+        <v>1.464536915347072E-3</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -6454,17 +5358,13 @@
       <c r="F259" t="s">
         <v>24</v>
       </c>
-      <c r="H259">
-        <v>1.8306711441838401E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>82</v>
       </c>
       <c r="B260" s="2">
-        <f t="shared" si="4"/>
-        <v>9.6901257014060782</v>
+        <v>0.38628840657090163</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -6475,17 +5375,13 @@
       <c r="F260" t="s">
         <v>24</v>
       </c>
-      <c r="H260">
-        <v>0.48286050821362703</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>54</v>
       </c>
       <c r="B261" s="2">
-        <f t="shared" si="4"/>
-        <v>1.7442226262530929E-2</v>
+        <v>6.953191318276224E-4</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -6496,17 +5392,13 @@
       <c r="F261" t="s">
         <v>24</v>
       </c>
-      <c r="H261">
-        <v>8.69148914784528E-4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>48</v>
       </c>
-      <c r="B262" s="2">
-        <f t="shared" si="4"/>
-        <v>4.642834140412815E-7</v>
+      <c r="B262" s="6">
+        <v>1.8508253219179682E-8</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -6517,17 +5409,13 @@
       <c r="F262" t="s">
         <v>24</v>
       </c>
-      <c r="H262" s="18">
-        <v>2.3135316523974601E-8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>72</v>
       </c>
-      <c r="B263" s="2">
-        <f t="shared" si="4"/>
-        <v>1.5419939159628791E-5</v>
+      <c r="B263" s="6">
+        <v>6.147024208910864E-7</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -6538,17 +5426,13 @@
       <c r="F263" t="s">
         <v>24</v>
       </c>
-      <c r="H263" s="18">
-        <v>7.68378026113858E-7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>67</v>
       </c>
       <c r="B264" s="2">
-        <f t="shared" si="4"/>
-        <v>3.1008402244499522</v>
+        <v>0.12361229010268879</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -6559,17 +5443,13 @@
       <c r="F264" t="s">
         <v>24</v>
       </c>
-      <c r="H264">
-        <v>0.15451536262836099</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>69</v>
       </c>
       <c r="B265" s="2">
-        <f t="shared" si="4"/>
-        <v>0.27132351963936907</v>
+        <v>1.0816075383985201E-2</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -6580,17 +5460,13 @@
       <c r="F265" t="s">
         <v>24</v>
       </c>
-      <c r="H265">
-        <v>1.3520094229981501E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>63</v>
       </c>
-      <c r="B266" s="2">
-        <f t="shared" si="4"/>
-        <v>3.4041832898852631E-5</v>
+      <c r="B266" s="6">
+        <v>1.3570479674316881E-6</v>
       </c>
       <c r="C266" t="s">
         <v>7</v>
@@ -6601,17 +5477,13 @@
       <c r="F266" t="s">
         <v>24</v>
       </c>
-      <c r="H266" s="18">
-        <v>1.6963099592896101E-6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>25</v>
       </c>
       <c r="B267" s="2">
-        <f t="shared" si="4"/>
-        <v>6801.2885749103343</v>
+        <v>271.12743499805839</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -6622,17 +5494,13 @@
       <c r="F267" t="s">
         <v>24</v>
       </c>
-      <c r="H267">
-        <v>338.90929374757297</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>72</v>
       </c>
-      <c r="B268" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9464513365433068E-4</v>
+      <c r="B268" s="6">
+        <v>7.7593584276415841E-6</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -6643,17 +5511,13 @@
       <c r="F268" t="s">
         <v>24</v>
       </c>
-      <c r="H268" s="18">
-        <v>9.6991980345519797E-6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B269" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18706155701844771</v>
+        <v>7.4570457616295761E-3</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -6664,38 +5528,30 @@
       <c r="F269" t="s">
         <v>24</v>
       </c>
-      <c r="H269">
-        <v>9.3213072020369696E-3</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B270" s="2">
-        <f t="shared" si="4"/>
-        <v>133.9765205672665</v>
+        <v>5.340857099545504</v>
       </c>
       <c r="C270" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D270" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F270" t="s">
         <v>24</v>
       </c>
-      <c r="H270">
-        <v>6.6760713744318796</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>25</v>
       </c>
       <c r="B271" s="2">
-        <f t="shared" si="4"/>
-        <v>1200.2273955724102</v>
+        <v>47.846017940833761</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -6706,17 +5562,13 @@
       <c r="F271" t="s">
         <v>24</v>
       </c>
-      <c r="H271">
-        <v>59.807522426042198</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B272" s="2">
-        <f t="shared" si="4"/>
-        <v>75.582980470967385</v>
+        <v>3.0130495712530321</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -6727,17 +5579,13 @@
       <c r="F272" t="s">
         <v>24</v>
       </c>
-      <c r="H272">
-        <v>3.7663119640662899</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B273" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3424825608616353</v>
+        <v>9.3381023501487206E-2</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -6748,17 +5596,13 @@
       <c r="F273" t="s">
         <v>24</v>
       </c>
-      <c r="H273">
-        <v>0.116726279376859</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>74</v>
       </c>
       <c r="B274" s="2">
-        <f t="shared" si="4"/>
-        <v>1.7189440374668158E-2</v>
+        <v>6.8524204296055522E-4</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -6769,17 +5613,13 @@
       <c r="F274" t="s">
         <v>24</v>
       </c>
-      <c r="H274">
-        <v>8.5655255370069403E-4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>56</v>
       </c>
-      <c r="B275" s="2">
-        <f t="shared" si="4"/>
-        <v>8.0385912340359949E-4</v>
+      <c r="B275" s="6">
+        <v>3.2045142597273042E-5</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -6790,17 +5630,13 @@
       <c r="F275" t="s">
         <v>24</v>
       </c>
-      <c r="H275" s="18">
-        <v>4.0056428246591303E-5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>47</v>
       </c>
       <c r="B276" s="2">
-        <f t="shared" si="4"/>
-        <v>2.1992372244060832</v>
+        <v>8.7670673143483202E-2</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -6811,17 +5647,13 @@
       <c r="F276" t="s">
         <v>24</v>
       </c>
-      <c r="H276">
-        <v>0.109588341429354</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>52</v>
       </c>
       <c r="B277" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8200583926119223</v>
+        <v>7.2555039842882321E-2</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
@@ -6832,17 +5664,13 @@
       <c r="F277" t="s">
         <v>24</v>
       </c>
-      <c r="H277">
-        <v>9.0693799803602898E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>71</v>
       </c>
       <c r="B278" s="2">
-        <f t="shared" si="4"/>
-        <v>15.251415234386949</v>
+        <v>0.60798436164637526</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
@@ -6853,17 +5681,13 @@
       <c r="F278" t="s">
         <v>24</v>
       </c>
-      <c r="H278">
-        <v>0.75998045205796905</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>84</v>
       </c>
       <c r="B279" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0532745327615285E-2</v>
+        <v>4.1987870279445761E-4</v>
       </c>
       <c r="C279" t="s">
         <v>7</v>
@@ -6874,17 +5698,13 @@
       <c r="F279" t="s">
         <v>24</v>
       </c>
-      <c r="H279">
-        <v>5.2484837849307202E-4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>50</v>
       </c>
       <c r="B280" s="2">
-        <f t="shared" si="4"/>
-        <v>1002.7173551889763</v>
+        <v>39.972452506032404</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
@@ -6895,38 +5715,30 @@
       <c r="F280" t="s">
         <v>24</v>
       </c>
-      <c r="H280">
-        <v>49.965565632540503</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B281" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8874679627086612</v>
+        <v>7.5242263540766879E-2</v>
       </c>
       <c r="C281" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D281" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F281" t="s">
         <v>24</v>
       </c>
-      <c r="H281">
-        <v>9.4052829425958606E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>84</v>
       </c>
       <c r="B282" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29407424954701933</v>
+        <v>1.172301338202128E-2</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -6937,17 +5749,13 @@
       <c r="F282" t="s">
         <v>24</v>
       </c>
-      <c r="H282">
-        <v>1.46537667275266E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>91</v>
       </c>
       <c r="B283" s="2">
-        <f t="shared" si="4"/>
-        <v>2.9323162992080913</v>
+        <v>0.11689423085797682</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -6958,17 +5766,13 @@
       <c r="F283" t="s">
         <v>24</v>
       </c>
-      <c r="H283">
-        <v>0.14611778857247101</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>53</v>
       </c>
       <c r="B284" s="2">
-        <f t="shared" si="4"/>
-        <v>3.0924140281878489E-2</v>
+        <v>1.232763871404528E-3</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -6979,17 +5783,13 @@
       <c r="F284" t="s">
         <v>24</v>
       </c>
-      <c r="H284">
-        <v>1.54095483925566E-3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>55</v>
       </c>
       <c r="B285" s="2">
-        <f t="shared" si="4"/>
-        <v>106.17007290236216</v>
+        <v>4.2323773241681355</v>
       </c>
       <c r="C285" t="s">
         <v>26</v>
@@ -7000,17 +5800,13 @@
       <c r="F285" t="s">
         <v>24</v>
       </c>
-      <c r="H285">
-        <v>5.2904716552101698</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>59</v>
       </c>
       <c r="B286" s="2">
-        <f t="shared" si="4"/>
-        <v>4.7523746918200152</v>
+        <v>0.18944927070085921</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -7021,17 +5817,13 @@
       <c r="F286" t="s">
         <v>24</v>
       </c>
-      <c r="H286">
-        <v>0.23681158837607399</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>62</v>
       </c>
       <c r="B287" s="2">
-        <f t="shared" si="4"/>
-        <v>248572.78973172072</v>
+        <v>9909.1373859491996</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -7042,17 +5834,13 @@
       <c r="F287" t="s">
         <v>24</v>
       </c>
-      <c r="H287">
-        <v>12386.4217324365</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>87</v>
       </c>
       <c r="B288" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29407424954701933</v>
+        <v>1.172301338202128E-2</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -7063,17 +5851,13 @@
       <c r="F288" t="s">
         <v>24</v>
       </c>
-      <c r="H288">
-        <v>1.46537667275266E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>58</v>
       </c>
       <c r="B289" s="2">
-        <f t="shared" si="4"/>
-        <v>7895.3458975803833</v>
+        <v>314.74107561472402</v>
       </c>
       <c r="C289" t="s">
         <v>26</v>
@@ -7084,17 +5868,13 @@
       <c r="F289" t="s">
         <v>24</v>
       </c>
-      <c r="H289">
-        <v>393.42634451840502</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>76</v>
       </c>
       <c r="B290" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4661581496040492</v>
+        <v>5.8447115428988561E-2</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
@@ -7105,17 +5885,13 @@
       <c r="F290" t="s">
         <v>24</v>
       </c>
-      <c r="H290">
-        <v>7.3058894286235701E-2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>51</v>
       </c>
       <c r="B291" s="2">
-        <f t="shared" si="4"/>
-        <v>1.3987485795073109</v>
+        <v>5.5759891731104003E-2</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -7126,17 +5902,13 @@
       <c r="F291" t="s">
         <v>24</v>
       </c>
-      <c r="H291">
-        <v>6.9699864663880007E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>68</v>
       </c>
       <c r="B292" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30334306543532075</v>
+        <v>1.2092506640480399E-2</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
@@ -7147,17 +5919,13 @@
       <c r="F292" t="s">
         <v>24</v>
       </c>
-      <c r="H292">
-        <v>1.5115633300600499E-2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B293" s="2">
-        <f t="shared" si="4"/>
-        <v>29997.258693048352</v>
+        <v>1195.8145455586159</v>
       </c>
       <c r="C293" t="s">
         <v>7</v>
@@ -7168,17 +5936,13 @@
       <c r="F293" t="s">
         <v>24</v>
       </c>
-      <c r="H293">
-        <v>1494.76818194827</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>61</v>
       </c>
       <c r="B294" s="2">
-        <f t="shared" si="4"/>
-        <v>4.6596865329370019</v>
+        <v>0.18575433811626801</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
@@ -7189,17 +5953,13 @@
       <c r="F294" t="s">
         <v>24</v>
       </c>
-      <c r="H294">
-        <v>0.232192922645335</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>89</v>
       </c>
       <c r="B295" s="2">
-        <f t="shared" si="4"/>
-        <v>292.38901029460078</v>
+        <v>11.655832789574159</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
@@ -7210,17 +5970,13 @@
       <c r="F295" t="s">
         <v>24</v>
       </c>
-      <c r="H295">
-        <v>14.5697909869677</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>83</v>
       </c>
       <c r="B296" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2892080281001127E-2</v>
+        <v>5.1393153222041685E-4</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
@@ -7231,17 +5987,13 @@
       <c r="F296" t="s">
         <v>24</v>
       </c>
-      <c r="H296">
-        <v>6.4241441527552101E-4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>77</v>
       </c>
       <c r="B297" s="2">
-        <f t="shared" si="4"/>
-        <v>0.1752648822515184</v>
+        <v>6.9867816144997767E-3</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
@@ -7252,17 +6004,13 @@
       <c r="F297" t="s">
         <v>24</v>
       </c>
-      <c r="H297">
-        <v>8.7334770181247204E-3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>83</v>
       </c>
       <c r="B298" s="2">
-        <f t="shared" si="4"/>
-        <v>1.4493057570798653</v>
+        <v>5.7775309504517439E-2</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
@@ -7273,38 +6021,30 @@
       <c r="F298" t="s">
         <v>24</v>
       </c>
-      <c r="H298">
-        <v>7.2219136880646795E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B299" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8874679627086612</v>
+        <v>7.5242263540766879E-2</v>
       </c>
       <c r="C299" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D299" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F299" t="s">
         <v>24</v>
       </c>
-      <c r="H299">
-        <v>9.4052829425958606E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>49</v>
       </c>
       <c r="B300" s="2">
-        <f t="shared" si="4"/>
-        <v>8.1481317854431953E-2</v>
+        <v>3.2481816448179284E-3</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
@@ -7315,17 +6055,13 @@
       <c r="F300" t="s">
         <v>24</v>
       </c>
-      <c r="H300">
-        <v>4.0602270560224103E-3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>90</v>
       </c>
       <c r="B301" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8706155701844773</v>
+        <v>7.4570457616295757E-2</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
@@ -7336,17 +6072,13 @@
       <c r="F301" t="s">
         <v>24</v>
       </c>
-      <c r="H301">
-        <v>9.32130720203697E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>78</v>
       </c>
       <c r="B302" s="2">
-        <f t="shared" si="4"/>
-        <v>9.2688158883014644</v>
+        <v>0.36949325845912318</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -7357,17 +6089,13 @@
       <c r="F302" t="s">
         <v>24</v>
       </c>
-      <c r="H302">
-        <v>0.461866573073904</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>32</v>
       </c>
       <c r="B303" s="2">
-        <f t="shared" si="4"/>
-        <v>0.29660210842564627</v>
+        <v>1.1823784270691921E-2</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -7378,17 +6106,13 @@
       <c r="F303" t="s">
         <v>24</v>
       </c>
-      <c r="H303">
-        <v>1.47797303383649E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>70</v>
       </c>
       <c r="B304" s="2">
-        <f t="shared" si="4"/>
-        <v>2.5699898599381384E-3</v>
+        <v>1.02450403481848E-4</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
@@ -7399,17 +6123,13 @@
       <c r="F304" t="s">
         <v>24</v>
       </c>
-      <c r="H304">
-        <v>1.2806300435231E-4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B305" s="2">
-        <f t="shared" si="4"/>
-        <v>6.833645168556794</v>
+        <v>0.27241730237304396</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -7420,17 +6140,13 @@
       <c r="F305" t="s">
         <v>24</v>
       </c>
-      <c r="H305">
-        <v>0.34052162796630497</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>88</v>
       </c>
       <c r="B306" s="2">
-        <f t="shared" si="4"/>
-        <v>0.12386508505275581</v>
+        <v>4.9377735448628236E-3</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -7441,17 +6157,13 @@
       <c r="F306" t="s">
         <v>24</v>
       </c>
-      <c r="H306">
-        <v>6.1722169310785297E-3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>81</v>
       </c>
       <c r="B307" s="2">
-        <f t="shared" si="4"/>
-        <v>1.8200583926119223</v>
+        <v>7.2555039842882321E-2</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -7462,17 +6174,13 @@
       <c r="F307" t="s">
         <v>24</v>
       </c>
-      <c r="H307">
-        <v>9.0693799803602898E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B308" s="2">
-        <f t="shared" ref="B308:B315" si="5">H308/0.128134695575195*0.18/$H$242</f>
-        <v>21655.324393577106</v>
+        <v>863.27061294540795</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -7483,17 +6191,13 @@
       <c r="F308" t="s">
         <v>24</v>
       </c>
-      <c r="H308">
-        <v>1079.08826618176</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>80</v>
       </c>
       <c r="B309" s="2">
-        <f t="shared" si="5"/>
-        <v>150.82891309145106</v>
+        <v>6.0126630240166401</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -7504,17 +6208,13 @@
       <c r="F309" t="s">
         <v>24</v>
       </c>
-      <c r="H309">
-        <v>7.5158287800207999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>51</v>
       </c>
-      <c r="B310" s="2">
-        <f t="shared" si="5"/>
-        <v>3.3283475235264351E-4</v>
+      <c r="B310" s="6">
+        <v>1.3268167008304881E-5</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -7525,17 +6225,13 @@
       <c r="F310" t="s">
         <v>24</v>
       </c>
-      <c r="H310" s="18">
-        <v>1.6585208760381101E-5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>79</v>
       </c>
       <c r="B311" s="2">
-        <f t="shared" si="5"/>
-        <v>3.5558548226029184E-2</v>
+        <v>1.4175105006340879E-3</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -7546,17 +6242,13 @@
       <c r="F311" t="s">
         <v>24</v>
       </c>
-      <c r="H311">
-        <v>1.7718881257926099E-3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>33</v>
       </c>
       <c r="B312" s="2">
-        <f t="shared" si="5"/>
-        <v>161.78296823217087</v>
+        <v>6.4493368749228726</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -7567,17 +6259,13 @@
       <c r="F312" t="s">
         <v>24</v>
       </c>
-      <c r="H312">
-        <v>8.0616710936535902</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>22</v>
       </c>
       <c r="B313" s="2">
-        <f t="shared" si="5"/>
-        <v>8333.5081032092221</v>
+        <v>332.20802965097516</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -7588,17 +6276,13 @@
       <c r="F313" t="s">
         <v>24</v>
       </c>
-      <c r="H313">
-        <v>415.26003706371898</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>60</v>
       </c>
       <c r="B314" s="2">
-        <f t="shared" si="5"/>
-        <v>3.0924140281878487E-3</v>
+        <v>1.232763871404528E-4</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -7609,17 +6293,13 @@
       <c r="F314" t="s">
         <v>24</v>
       </c>
-      <c r="H314">
-        <v>1.54095483925566E-4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>57</v>
       </c>
-      <c r="B315" s="2">
-        <f t="shared" si="5"/>
-        <v>5.8646325984162008E-4</v>
+      <c r="B315" s="6">
+        <v>2.3378846171595437E-5</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -7630,11 +6310,8 @@
       <c r="F315" t="s">
         <v>24</v>
       </c>
-      <c r="H315" s="18">
-        <v>2.9223557714494299E-5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>97</v>
       </c>
@@ -7652,962 +6329,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBE61D7-2455-406B-8003-3714D0481253}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="8">
-        <f>107000</f>
-        <v>107000</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3.0303030000000002E-2</v>
-      </c>
-      <c r="D3">
-        <f>B3*C3</f>
-        <v>3242.4242100000001</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E10" si="0">D3/SUM($D$3:$D$10)</f>
-        <v>8.4888477418393851E-2</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="8">
-        <f>10300</f>
-        <v>10300</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.12121212119999999</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D10" si="1">B4*C4</f>
-        <v>1248.4848483599999</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" si="0"/>
-        <v>3.2686030880954564E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5">
-        <v>20600</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>20600</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.53931950958968233</v>
-      </c>
-      <c r="G5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6">
-        <v>5640</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>3406.56</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>8.9185644106205247E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7">
-        <v>23800</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.157</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>3736.6</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>9.7826275705476071E-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8">
-        <v>25128</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4.36E-2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1095.5808</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>2.868291746465397E-2</v>
-      </c>
-      <c r="H8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C9" s="8">
-        <v>220</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>785.62</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>2.0567970539992535E-2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9">
-        <v>160000</v>
-      </c>
-      <c r="I9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10">
-        <v>12.074</v>
-      </c>
-      <c r="C10" s="8">
-        <v>338</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>4081.0120000000002</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1068431742946412</v>
-      </c>
-      <c r="G10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10">
-        <v>15400</v>
-      </c>
-      <c r="I10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C14">
-        <v>3200</v>
-      </c>
-      <c r="D14">
-        <f>B14*C14</f>
-        <v>11427.2</v>
-      </c>
-      <c r="E14" s="12">
-        <f>D14/SUM($D$14:$D$20)</f>
-        <v>0.19158029070912327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15">
-        <v>12.074</v>
-      </c>
-      <c r="C15">
-        <v>2310</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:D20" si="2">B15*C15</f>
-        <v>27890.94</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" ref="E15:E20" si="3">D15/SUM($D$14:$D$20)</f>
-        <v>0.46759962137275224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16">
-        <v>20600</v>
-      </c>
-      <c r="C16">
-        <v>0.25</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>5150</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="3"/>
-        <v>8.6341229448332474E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17">
-        <v>23800</v>
-      </c>
-      <c r="C17">
-        <v>0.02</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>476</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="3"/>
-        <v>7.980276741243934E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18">
-        <v>5640</v>
-      </c>
-      <c r="C18">
-        <v>0.73</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>4117.2</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="3"/>
-        <v>6.9026040754305712E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="8">
-        <f>107000</f>
-        <v>107000</v>
-      </c>
-      <c r="C19" s="8">
-        <f>0.1/1.4</f>
-        <v>7.1428571428571438E-2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>7642.857142857144</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="3"/>
-        <v>0.12813469557519522</v>
-      </c>
-      <c r="G19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="8">
-        <f>10300</f>
-        <v>10300</v>
-      </c>
-      <c r="C20" s="8">
-        <f>0.4/1.4</f>
-        <v>0.28571428571428575</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>2942.8571428571431</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="3"/>
-        <v>4.9337845399047134E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679DA291-A0B6-44A7-9DFB-D0BB09525C42}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2">
-        <v>74.230769230769198</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="8">
-        <f>B2-B1</f>
-        <v>74.230769230769198</v>
-      </c>
-      <c r="F2" s="8">
-        <f>B8-B7</f>
-        <v>38.846153846153797</v>
-      </c>
-      <c r="G2" s="8">
-        <f>B14-B13</f>
-        <v>84.230769230769198</v>
-      </c>
-      <c r="H2" s="8">
-        <f>B20-B19</f>
-        <v>93.846153846153797</v>
-      </c>
-      <c r="I2" s="8">
-        <f>B25-B24</f>
-        <v>85.384615384615401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3">
-        <v>84.423076923076906</v>
-      </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E6" si="0">B3-B2</f>
-        <v>10.192307692307708</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F6" si="1">B9-B8</f>
-        <v>39.615384615384599</v>
-      </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G6" si="2">B15-B14</f>
-        <v>7.115384615384599</v>
-      </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H5" si="3">B21-B20</f>
-        <v>2.3076923076923066</v>
-      </c>
-      <c r="I3" s="8">
-        <f t="shared" ref="I3:I6" si="4">B26-B25</f>
-        <v>2.6923076923075939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4">
-        <v>89.038461538461505</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>4.615384615384599</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="1"/>
-        <v>13.076923076923109</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="3"/>
-        <v>0.96153846153849543</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" si="4"/>
-        <v>3.0769230769231086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5">
-        <v>96.346153846153797</v>
-      </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>7.3076923076922924</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>5.5769230769230944</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="2"/>
-        <v>5.384615384615401</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="3"/>
-        <v>2.4038461538461036</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>3.653846153846203</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>2.884615384615401</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="2"/>
-        <v>0.76923076923080203</v>
-      </c>
-      <c r="H6" s="8">
-        <f>B30-B23</f>
-        <v>0.48076923076929745</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="4"/>
-        <v>1.3461538461538964</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <f>SUM(E2:E6)</f>
-        <v>100</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" ref="F7:I7" si="5">SUM(F2:F6)</f>
-        <v>100</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8">
-        <v>38.846153846153797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9">
-        <v>78.461538461538396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10">
-        <v>91.538461538461505</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11">
-        <v>97.115384615384599</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="15">
-        <f>E2/SUM(E$2:E$5)</f>
-        <v>0.77045908183632739</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" ref="F11:I11" si="6">F2/SUM(F$2:F$5)</f>
-        <v>0.39999999999999958</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="shared" si="6"/>
-        <v>0.84883720930232553</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="6"/>
-        <v>0.94299516908212577</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="6"/>
-        <v>0.86549707602339243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" ref="E12:I13" si="7">E3/SUM(E$2:E$5)</f>
-        <v>0.10578842315369283</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" si="7"/>
-        <v>0.40792079207920784</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" si="7"/>
-        <v>7.1705426356589011E-2</v>
-      </c>
-      <c r="H12" s="15">
-        <f t="shared" si="7"/>
-        <v>2.3188405797101453E-2</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7290448343078939E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="16">
-        <f t="shared" si="7"/>
-        <v>4.7904191616766324E-2</v>
-      </c>
-      <c r="F13" s="16">
-        <f t="shared" si="7"/>
-        <v>0.134653465346535</v>
-      </c>
-      <c r="G13" s="16">
-        <f t="shared" si="7"/>
-        <v>2.5193798449612413E-2</v>
-      </c>
-      <c r="H13" s="16">
-        <f t="shared" si="7"/>
-        <v>9.661835748792617E-3</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" si="7"/>
-        <v>3.1189083820663106E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14">
-        <v>84.230769230769198</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="15">
-        <f>E13/2</f>
-        <v>2.3952095808383162E-2</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" ref="F14:I14" si="8">F13/2</f>
-        <v>6.7326732673267498E-2</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="8"/>
-        <v>1.2596899224806207E-2</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="8"/>
-        <v>4.8309178743963085E-3</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="8"/>
-        <v>1.5594541910331553E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15">
-        <v>91.346153846153797</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="15">
-        <f>E13/2</f>
-        <v>2.3952095808383162E-2</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" ref="F15:I15" si="9">F13/2</f>
-        <v>6.7326732673267498E-2</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="9"/>
-        <v>1.2596899224806207E-2</v>
-      </c>
-      <c r="H15" s="15">
-        <f t="shared" si="9"/>
-        <v>4.8309178743963085E-3</v>
-      </c>
-      <c r="I15" s="15">
-        <f t="shared" si="9"/>
-        <v>1.5594541910331553E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16">
-        <v>93.846153846153797</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="15">
-        <f>E5/SUM(E$2:E$5)</f>
-        <v>7.5848303393213454E-2</v>
-      </c>
-      <c r="F16" s="15">
-        <f>F5/SUM(F$2:F$5)</f>
-        <v>5.7425742574257616E-2</v>
-      </c>
-      <c r="G16" s="15">
-        <f>G5/SUM(G$2:G$5)</f>
-        <v>5.4263565891473055E-2</v>
-      </c>
-      <c r="H16" s="15">
-        <f>H5/SUM(H$2:H$5)</f>
-        <v>2.4154589371980187E-2</v>
-      </c>
-      <c r="I16" s="15">
-        <f>I5/SUM(I$2:I$5)</f>
-        <v>7.6023391812865534E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17">
-        <v>99.230769230769198</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20">
-        <v>93.846153846153797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21">
-        <v>96.153846153846104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22">
-        <v>97.115384615384599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23">
-        <v>99.519230769230703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25">
-        <v>85.384615384615401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26">
-        <v>88.076923076922995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27">
-        <v>91.153846153846104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28">
-        <v>98.653846153846104</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" xr:uid="{AFB5DA0C-6ED1-42F2-8E07-71F8318E0FC0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>